--- a/OpenMP_Lab/result.xlsx
+++ b/OpenMP_Lab/result.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="N=2k; laptop" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="N=2k; cluster" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t xml:space="preserve">Время</t>
   </si>
@@ -36,19 +37,24 @@
   <si>
     <t xml:space="preserve">Эффективность, %</t>
   </si>
+  <si>
+    <t xml:space="preserve">v1.c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -65,8 +71,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +95,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF4000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,16 +138,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,7 +217,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
@@ -217,14 +247,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0704106506656666"/>
-          <c:y val="0.0460606734081565"/>
-          <c:w val="0.750984436527283"/>
-          <c:h val="0.865985109456606"/>
+          <c:x val="0.0703569580962235"/>
+          <c:y val="0.0460066249539934"/>
+          <c:w val="0.750957061562338"/>
+          <c:h val="0.865844681634155"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -241,13 +271,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -256,11 +280,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -276,10 +305,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$A$5:$E$5</c:f>
+              <c:f>'N=2k; laptop'!$A$5:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -297,10 +326,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$A$6:$E$6</c:f>
+              <c:f>'N=2k; laptop'!$A$6:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
@@ -333,13 +362,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -348,11 +371,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -368,10 +396,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$A$5:$E$5</c:f>
+              <c:f>'N=2k; laptop'!$A$5:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -389,10 +417,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$A$7:$E$7</c:f>
+              <c:f>'N=2k; laptop'!$A$7:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
@@ -410,17 +438,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52376066"/>
-        <c:axId val="67181849"/>
+        <c:axId val="43574162"/>
+        <c:axId val="69545751"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52376066"/>
+        <c:axId val="43574162"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -437,17 +465,21 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67181849"/>
+        <c:crossAx val="69545751"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67181849"/>
+        <c:axId val="69545751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +494,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -479,14 +511,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52376066"/>
+        <c:crossAx val="43574162"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -512,7 +548,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -544,14 +584,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0703496792882268"/>
+          <c:x val="0.0703133078275256"/>
           <c:y val="0.0459981600735971"/>
-          <c:w val="0.750982826401821"/>
-          <c:h val="0.865869365225391"/>
+          <c:w val="0.750904766828663"/>
+          <c:h val="0.865685372585097"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -579,13 +619,712 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N=2k; laptop'!$B$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2k; laptop'!$B$10:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.4725347529327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.4311593789197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.69293137485958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2k; laptop'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N=2k; laptop'!$B$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2k; laptop'!$B$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0653777732864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5957742432914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.80905099373197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="72242533"/>
+        <c:axId val="28232656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="72242533"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28232656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28232656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72242533"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0703569580962235"/>
+          <c:y val="0.0460066249539934"/>
+          <c:w val="0.750957061562338"/>
+          <c:h val="0.865844681634155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$B$5:$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2k; cluster'!$B$6:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.0466694435834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.8234006004261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5260021385314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.5565438990381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.3876928117028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.989831063477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.1889010423224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.203606532905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.8903871794989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.1640921676424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5015131814355</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.2878640013962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.6817851478864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.7707331099011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.4732872700685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$B$5:$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2k; cluster'!$B$7:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.1453147129808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.6721079918027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.1555637568214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.4971188789916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.1060280884799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.6046555606886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.0563394325899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.7120140118916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.9884888768788</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.8992478401175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.1946084230151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.4494145735973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.1342574019243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.4901996431412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.4924440384722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -614,9 +1353,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>'N=2k; laptop'!$B$9:$E$9</c:f>
+              <c:f>'N=2k; cluster'!$B$5:$Q$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -628,27 +1367,427 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$B$10:$E$10</c:f>
+              <c:f>'N=2k; cluster'!$B$8:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.4725347529327</c:v>
+                  <c:v>46.4732846763159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.4311593789197</c:v>
+                  <c:v>59.7839303130991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.69293137485958</c:v>
+                  <c:v>44.4434570693942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.9644780128078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.5509222207816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.8439304622638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.756018854293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.0563445708122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.4041629078292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.0626352192218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.0225200979133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.9723661244007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.0264746245535</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.2821907363029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.8191128365151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="96546530"/>
+        <c:axId val="61824463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96546530"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61824463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="61824463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96546530"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0703133078275256"/>
+          <c:y val="0.0459981600735971"/>
+          <c:w val="0.750904766828663"/>
+          <c:h val="0.865685372585097"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$B$9:$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2k; cluster'!$B$10:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0233347217917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2744668668087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.6315005346328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.3113087798076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.89794880195046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.71283300906815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3986126302903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.24484517032278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.58903871794989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7421901970584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.54179276511963</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.32983569241509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.33441322484903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.65138220732674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.90458045437928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,11 +1799,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; laptop'!$A$11</c:f>
+              <c:f>'N=2k; cluster'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v0_reduction.c</c:v>
+                  <c:v>v0_sVector.c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -681,13 +1820,180 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$B$9:$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2k; cluster'!$B$11:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0726573564904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.2240359972676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.53889093920535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.89942377579831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.35100468141332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2292365086698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.75704242907374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.74577933465462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.99884888768788</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.62720434910159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.51621736858459</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.18841650566133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.79530410013745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.69934664287608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.40577775240451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2k; cluster'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="ffd320"/>
               </a:solidFill>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
@@ -716,9 +2022,9 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>'N=2k; laptop'!$B$9:$E$9</c:f>
+              <c:f>'N=2k; cluster'!$B$9:$Q$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -730,44 +2036,116 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$B$11:$E$11</c:f>
+              <c:f>'N=2k; cluster'!$B$12:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0653777732864</c:v>
+                  <c:v>23.236642338158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5957742432914</c:v>
+                  <c:v>19.927976771033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.80905099373197</c:v>
+                  <c:v>11.1108642673486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.7928956025616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.59182037013027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.26341863746626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.71950235678662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.22848273009024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.44041629078292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.27842138356562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.00187667482611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.61325893264621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.21617675889668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.15214604908686</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.80119455228219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30897811"/>
-        <c:axId val="5521693"/>
+        <c:axId val="46039631"/>
+        <c:axId val="38311217"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30897811"/>
+        <c:axId val="46039631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -784,17 +2162,21 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5521693"/>
+        <c:crossAx val="38311217"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5521693"/>
+        <c:axId val="38311217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +2191,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -826,14 +2208,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30897811"/>
+        <c:crossAx val="46039631"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -859,7 +2245,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -885,14 +2275,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>39240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:colOff>56160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -901,7 +2291,72 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="39240" y="1950120"/>
-        <a:ext cx="3479400" cy="1956240"/>
+        <a:ext cx="3479040" cy="1955880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>229320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>351000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3691440" y="2066760"/>
+        <a:ext cx="3481200" cy="1956240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>229680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1059480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="229680" y="2684520"/>
+        <a:ext cx="3479040" cy="1955880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -920,18 +2375,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>351360</xdr:colOff>
+      <xdr:colOff>49680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3691440" y="2066760"/>
-        <a:ext cx="3481560" cy="1956600"/>
+        <a:off x="3976560" y="2061720"/>
+        <a:ext cx="3481200" cy="1956240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1057,181 +2512,181 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>38.009598</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>21.644592</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>16.455677</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>14.736977</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>43.599986</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>26.217001</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>17.783267</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>15.36298</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <f aca="false">(B2/$B$2) * 100</f>
         <v>100</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">(C2/$B$2) * 100</f>
         <v>56.9450695058653</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">(D2/$B$2) * 100</f>
         <v>43.293478136759</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">(E2/$B$2) * 100</f>
         <v>38.7717254994383</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <f aca="false">(B3/$B$3)*100</f>
         <v>100</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">(C3/$B$3)*100</f>
         <v>60.1307555465729</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">(D3/$B$3)*100</f>
         <v>40.7873227298743</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">(E3/$B$3)*100</f>
         <v>35.2362039749279</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <f aca="false">(B6/B1)</f>
         <v>100</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">(C6/C1)</f>
         <v>28.4725347529327</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">(D6/D1)</f>
         <v>14.4311593789197</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">(E6/E1)</f>
         <v>9.69293137485958</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <f aca="false">(B7/B1)</f>
         <v>100</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">(C7/C1)</f>
         <v>30.0653777732864</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">(D7/D1)</f>
         <v>13.5957742432914</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">(E7/E1)</f>
         <v>8.80905099373197</v>
       </c>
@@ -1246,4 +2701,763 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>25.750382</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>10.827178</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>15.662258</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>10.950608</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>13.276007</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>10.657489</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>12.100061</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>11.121307</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>12.155109</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>11.81695</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>13.432453</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>10.944302</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>14.49434</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>12.020738</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>14.103673</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>11.967049</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>58.828317</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>23.616813</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>32.162681</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>22.446276</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>29.118322</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>22.417135</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>25.651885</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>22.387904</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>25.126759</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>23.524555</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>23.472056</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>24.822378</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>24.383993</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>23.022025</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>23.819703</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>22.644457</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>61.408614</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>28.5386</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>36.712483</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>27.292111</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>33.138838</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>27.97219</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>31.222553</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>28.098137</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>28.896649</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>27.267981</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>28.900512</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>29.489964</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>28.845079</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>27.650134</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>29.035338</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>27.522796</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <f aca="false">(C2/$B$2) * 100</f>
+        <v>42.0466694435834</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">(D2/$B$2) * 100</f>
+        <v>60.8234006004261</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">(E2/$B$2) * 100</f>
+        <v>42.5260021385314</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">(F2/$B$2) * 100</f>
+        <v>51.5565438990381</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">(G2/$B$2) * 100</f>
+        <v>41.3876928117028</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">(H2/$B$2) * 100</f>
+        <v>46.989831063477</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">(I2/$B$2) * 100</f>
+        <v>43.1889010423224</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">(J2/$B$2) * 100</f>
+        <v>47.203606532905</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">(K2/$B$2) * 100</f>
+        <v>45.8903871794989</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">(L2/$B$2) * 100</f>
+        <v>52.1640921676424</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <f aca="false">(M2/$B$2) * 100</f>
+        <v>42.5015131814355</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">(N2/$B$2) * 100</f>
+        <v>56.2878640013962</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <f aca="false">(O2/$B$2) * 100</f>
+        <v>46.6817851478864</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <f aca="false">(P2/$B$2) * 100</f>
+        <v>54.7707331099011</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <f aca="false">(Q2/$B$2) * 100</f>
+        <v>46.4732872700685</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">(C3/$B$3)*100</f>
+        <v>40.1453147129808</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">(D3/$B$3)*100</f>
+        <v>54.6721079918027</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">(E3/$B$3)*100</f>
+        <v>38.1555637568214</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">(F3/$B$3)*100</f>
+        <v>49.4971188789916</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">(G3/$B$3)*100</f>
+        <v>38.1060280884799</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">(H3/$B$3)*100</f>
+        <v>43.6046555606886</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">(I3/$B$3)*100</f>
+        <v>38.0563394325899</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">(J3/$B$3)*100</f>
+        <v>42.7120140118916</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">(K3/$B$3)*100</f>
+        <v>39.9884888768788</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">(L3/$B$3)*100</f>
+        <v>39.8992478401175</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">(M3/$B$3)*100</f>
+        <v>42.1946084230151</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">(N3/$B$3)*100</f>
+        <v>41.4494145735973</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <f aca="false">(O3/$B$3)*100</f>
+        <v>39.1342574019243</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <f aca="false">(P3/$B$3)*100</f>
+        <v>40.4901996431412</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <f aca="false">(Q3/$B$3)*100</f>
+        <v>38.4924440384722</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">(C4/$B$4)*100</f>
+        <v>46.4732846763159</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">(D4/$B$4)*100</f>
+        <v>59.7839303130991</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">(E4/$B$4)*100</f>
+        <v>44.4434570693942</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">(F4/$B$4)*100</f>
+        <v>53.9644780128078</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">(G4/$B$4)*100</f>
+        <v>45.5509222207816</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">(H4/$B$4)*100</f>
+        <v>50.8439304622638</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">(I4/$B$4)*100</f>
+        <v>45.756018854293</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">(J4/$B$4)*100</f>
+        <v>47.0563445708122</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">(K4/$B$4)*100</f>
+        <v>44.4041629078292</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">(L4/$B$4)*100</f>
+        <v>47.0626352192218</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">(M4/$B$4)*100</f>
+        <v>48.0225200979133</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">(N4/$B$4)*100</f>
+        <v>46.9723661244007</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">(O4/$B$4)*100</f>
+        <v>45.0264746245535</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">(P4/$B$4)*100</f>
+        <v>47.2821907363029</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">(Q4/$B$4)*100</f>
+        <v>44.8191128365151</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <f aca="false">(B6/B1)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <f aca="false">(C6/C1)</f>
+        <v>21.0233347217917</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">(D6/D1)</f>
+        <v>20.2744668668087</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">(E6/E1)</f>
+        <v>10.6315005346328</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">(F6/F1)</f>
+        <v>10.3113087798076</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <f aca="false">(G6/G1)</f>
+        <v>6.89794880195046</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">(H6/H1)</f>
+        <v>6.71283300906815</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false">(I6/I1)</f>
+        <v>5.3986126302903</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">(J6/J1)</f>
+        <v>5.24484517032278</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <f aca="false">(K6/K1)</f>
+        <v>4.58903871794989</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">(L6/L1)</f>
+        <v>4.7421901970584</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">(M6/M1)</f>
+        <v>3.54179276511963</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <f aca="false">(N6/N1)</f>
+        <v>4.32983569241509</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <f aca="false">(O6/O1)</f>
+        <v>3.33441322484903</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <f aca="false">(P6/P1)</f>
+        <v>3.65138220732674</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <f aca="false">(Q6/Q1)</f>
+        <v>2.90458045437928</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <f aca="false">(B7/B1)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <f aca="false">(C7/C1)</f>
+        <v>20.0726573564904</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">(D7/D1)</f>
+        <v>18.2240359972676</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">(E7/E1)</f>
+        <v>9.53889093920535</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">(F7/F1)</f>
+        <v>9.89942377579831</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <f aca="false">(G7/G1)</f>
+        <v>6.35100468141332</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">(H7/H1)</f>
+        <v>6.2292365086698</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">(I7/I1)</f>
+        <v>4.75704242907374</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">(J7/J1)</f>
+        <v>4.74577933465462</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">(K7/K1)</f>
+        <v>3.99884888768788</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">(L7/L1)</f>
+        <v>3.62720434910159</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">(M7/M1)</f>
+        <v>3.51621736858459</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">(N7/N1)</f>
+        <v>3.18841650566133</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <f aca="false">(O7/O1)</f>
+        <v>2.79530410013745</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <f aca="false">(P7/P1)</f>
+        <v>2.69934664287608</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <f aca="false">(Q7/Q1)</f>
+        <v>2.40577775240451</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <f aca="false">B8/B1</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <f aca="false">C8/C1</f>
+        <v>23.236642338158</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="false">D8/D1</f>
+        <v>19.927976771033</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <f aca="false">E8/E1</f>
+        <v>11.1108642673486</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <f aca="false">F8/F1</f>
+        <v>10.7928956025616</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">G8/G1</f>
+        <v>7.59182037013027</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">H8/H1</f>
+        <v>7.26341863746626</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">I8/I1</f>
+        <v>5.71950235678662</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <f aca="false">J8/J1</f>
+        <v>5.22848273009024</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <f aca="false">K8/K1</f>
+        <v>4.44041629078292</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <f aca="false">L8/L1</f>
+        <v>4.27842138356562</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <f aca="false">M8/M1</f>
+        <v>4.00187667482611</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <f aca="false">N8/N1</f>
+        <v>3.61325893264621</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <f aca="false">O8/O1</f>
+        <v>3.21617675889668</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <f aca="false">P8/P1</f>
+        <v>3.15214604908686</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <f aca="false">Q8/Q1</f>
+        <v>2.80119455228219</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/OpenMP_Lab/result.xlsx
+++ b/OpenMP_Lab/result.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="N=2k; laptop" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="N=2k; cluster" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="(old)N=2k; cluster; -O3" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="(old)N=25k;laptop; -O2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="(old)N=2k;laptop; -O2" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="(old)N=2k; laptop; -O3" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,9 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
   <si>
     <t xml:space="preserve">Время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1.c</t>
   </si>
   <si>
     <t xml:space="preserve">v0_sVector.c</t>
@@ -32,22 +37,30 @@
     <t xml:space="preserve">v0_reduction.c</t>
   </si>
   <si>
-    <t xml:space="preserve">Ускорение, %</t>
+    <t xml:space="preserve">Ускорение</t>
   </si>
   <si>
     <t xml:space="preserve">Эффективность, %</t>
   </si>
   <si>
-    <t xml:space="preserve">v1.c</t>
+    <t xml:space="preserve">Эффективность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эффективность %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ускорение, %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -78,7 +91,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +114,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF158466"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF004586"/>
       </patternFill>
     </fill>
   </fills>
@@ -138,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,7 +214,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,7 +274,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -196,7 +283,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -209,7 +296,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -221,14 +308,14 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -247,10 +334,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0703569580962235"/>
-          <c:y val="0.0460066249539934"/>
-          <c:w val="0.750957061562338"/>
-          <c:h val="0.865844681634155"/>
+          <c:x val="0.0703860883966463"/>
+          <c:y val="0.0460405156537753"/>
+          <c:w val="0.750439913052479"/>
+          <c:h val="0.865009208103131"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -259,6 +346,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$6:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -305,42 +403,114 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$A$5:$Q$5</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$5:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$A$6:$Q$6</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$6:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>2.37830965741951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.9450695058653</c:v>
+                  <c:v>1.64410406213459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.293478136759</c:v>
+                  <c:v>2.35150249191643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.7717254994383</c:v>
+                  <c:v>1.93961798905349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.41617720646955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.12812001526273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31540969060561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1184821954291</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.17910560677671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.91702751537638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.35285740470247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.77658189334595</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.14216315171331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.82579261444873</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.15177375809191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -350,6 +520,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$7:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
@@ -396,53 +577,299 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$A$5:$Q$5</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$5:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$A$7:$Q$7</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$7:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>2.49095070533014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.1307555465729</c:v>
+                  <c:v>1.82908623195933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.7873227298743</c:v>
+                  <c:v>2.6208497569931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.2362039749279</c:v>
+                  <c:v>2.02031961182379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.62425671255493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.29333310203129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.62768310066007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.34126164062783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.50071965229523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.50631291097806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.36997103984155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.41257930971355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.55530592986499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.46973343874187</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.59791246043127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43574162"/>
-        <c:axId val="69545751"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$8:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.15177387818604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.67269029447014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25004998697243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.85307082885646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.19534523396273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.96680309902909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.18550482546227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.12511194637136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25204110271311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.12482789232246</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.08235635689484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.12891127807277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.22091560207267</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.11496122414693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.23119097347522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="44954932"/>
+        <c:axId val="75096667"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43574162"/>
+        <c:axId val="44954932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,12 +901,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69545751"/>
+        <c:crossAx val="75096667"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69545751"/>
+        <c:axId val="75096667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +947,1379 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43574162"/>
+        <c:crossAx val="44954932"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0704309418646293"/>
+          <c:y val="0.0459696386572589"/>
+          <c:w val="0.750507341530381"/>
+          <c:h val="0.865084455847766"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$6:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.88677995166002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.60313595522689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.85681776304238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$7:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.92757665184513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.51227117012567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8758599221995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$8:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85850371950505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.46299459968664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.84675799345013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="66853871"/>
+        <c:axId val="77957551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66853871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77957551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77957551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66853871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0702264196633975"/>
+          <c:y val="0.0461206896551724"/>
+          <c:w val="0.750454050127134"/>
+          <c:h val="0.864870689655172"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$10:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.3389975830008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.7711985075629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.4204440760596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$11:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.3788325922564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.7423723375225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.8964980549876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$12:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.9251859752523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.0998199895547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.1689498362534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="47042040"/>
+        <c:axId val="61085496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47042040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61085496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="61085496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47042040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.418944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.762105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.075675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.447364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$3:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.274089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.374852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.632902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.656468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$A$4:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; laptop; -O3'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42.481455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.85788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.247888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.922749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="5481063"/>
+        <c:axId val="43842329"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5481063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43842329"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43842329"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5481063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -584,10 +2383,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0703133078275256"/>
-          <c:y val="0.0459981600735971"/>
-          <c:w val="0.750904766828663"/>
-          <c:h val="0.865685372585097"/>
+          <c:x val="0.0703424019861384"/>
+          <c:y val="0.0460320382986559"/>
+          <c:w val="0.750387917658012"/>
+          <c:h val="0.864849935555146"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -598,11 +2397,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; laptop'!$A$10</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$10:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v0_sVector.c</c:v>
+                  <c:v>v1.c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -653,7 +2452,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$B$9:$Q$9</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$9:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -668,27 +2467,99 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$B$10:$Q$10</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$10:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.4725347529327</c:v>
+                  <c:v>118.915482870975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.4311593789197</c:v>
+                  <c:v>54.8034687378197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.69293137485958</c:v>
+                  <c:v>58.7875622979108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.7923597810697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.2696201078259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.4017145037533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.9426211325701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.5386910603233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.7910560677671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.427522867058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.6071450391872</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.6660145641997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.3011653693808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.1719507629916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.4485859880744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,11 +2571,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; laptop'!$A$11</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$11:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v0_reduction.c</c:v>
+                  <c:v>v0_sVector.c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -755,7 +2626,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$B$9:$Q$9</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$9:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -770,38 +2641,284 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; laptop'!$B$11:$Q$11</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$11:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0653777732864</c:v>
+                  <c:v>124.547535266507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5957742432914</c:v>
+                  <c:v>60.9695410653111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.80905099373197</c:v>
+                  <c:v>65.5212439248274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.4063922364757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.7376118759155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.7619014575899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.8460387582509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.0140182291981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.0071965229523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.7846628270733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.7497586653462</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.5583023824119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.2521852133213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.4648895916125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.2369528776954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72242533"/>
-        <c:axId val="28232656"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$12:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$12:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.588693909302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.7563431490047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.2512496743106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.0614165771292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5890872327122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.097187128987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.3188103182784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.6123549596818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5204110271311</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.3166172029315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.3529696407903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.3762406005598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.8636828719476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0997414943129</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.9449435842201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="85202584"/>
+        <c:axId val="42696965"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72242533"/>
+        <c:axId val="85202584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,12 +2950,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28232656"/>
+        <c:crossAx val="42696965"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="28232656"/>
+        <c:axId val="42696965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +2996,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72242533"/>
+        <c:crossAx val="85202584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -928,6 +3045,7 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -938,17 +3056,6 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0703569580962235"/>
-          <c:y val="0.0460066249539934"/>
-          <c:w val="0.750957061562338"/>
-          <c:h val="0.865844681634155"/>
-        </c:manualLayout>
-      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
@@ -957,7 +3064,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; cluster'!$A$6</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$2:$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1011,9 +3118,10 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
-              <c:f>'N=2k; cluster'!$B$5:$Q$5</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1063,62 +3171,62 @@
                 <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; cluster'!$B$6:$Q$6</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>25.750382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.0466694435834</c:v>
+                  <c:v>10.827178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.8234006004261</c:v>
+                  <c:v>15.662258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.5260021385314</c:v>
+                  <c:v>10.950608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.5565438990381</c:v>
+                  <c:v>13.276007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.3876928117028</c:v>
+                  <c:v>10.657489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.989831063477</c:v>
+                  <c:v>12.100061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.1889010423224</c:v>
+                  <c:v>11.121307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.203606532905</c:v>
+                  <c:v>12.155109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.8903871794989</c:v>
+                  <c:v>11.81695</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.1640921676424</c:v>
+                  <c:v>13.432453</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.5015131814355</c:v>
+                  <c:v>10.944302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.2878640013962</c:v>
+                  <c:v>14.49434</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.6817851478864</c:v>
+                  <c:v>12.020738</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.7707331099011</c:v>
+                  <c:v>14.103673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.4732872700685</c:v>
+                  <c:v>11.967049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +3238,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; cluster'!$A$7</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$3:$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1184,9 +3292,10 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
-              <c:f>'N=2k; cluster'!$B$5:$Q$5</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1236,62 +3345,62 @@
                 <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; cluster'!$B$7:$Q$7</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>58.828317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.1453147129808</c:v>
+                  <c:v>23.616813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.6721079918027</c:v>
+                  <c:v>32.162681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.1555637568214</c:v>
+                  <c:v>22.446276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.4971188789916</c:v>
+                  <c:v>29.118322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.1060280884799</c:v>
+                  <c:v>22.417135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.6046555606886</c:v>
+                  <c:v>25.651885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.0563394325899</c:v>
+                  <c:v>22.387904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.7120140118916</c:v>
+                  <c:v>25.126759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.9884888768788</c:v>
+                  <c:v>23.524555</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.8992478401175</c:v>
+                  <c:v>23.472056</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.1946084230151</c:v>
+                  <c:v>24.822378</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.4494145735973</c:v>
+                  <c:v>24.383993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.1342574019243</c:v>
+                  <c:v>23.022025</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.4901996431412</c:v>
+                  <c:v>23.819703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.4924440384722</c:v>
+                  <c:v>22.644457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +3412,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; cluster'!$A$8</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$A$4:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1333,11 +3442,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1352,9 +3466,10 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
-              <c:f>'N=2k; cluster'!$B$5:$Q$5</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1404,73 +3519,73 @@
                 <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; cluster'!$B$8:$Q$8</c:f>
+              <c:f>'(old)N=2k; cluster; -O3'!$B$4:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>61.408614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.4732846763159</c:v>
+                  <c:v>28.5386</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.7839303130991</c:v>
+                  <c:v>36.712483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.4434570693942</c:v>
+                  <c:v>27.292111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.9644780128078</c:v>
+                  <c:v>33.138838</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.5509222207816</c:v>
+                  <c:v>27.97219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.8439304622638</c:v>
+                  <c:v>31.222553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.756018854293</c:v>
+                  <c:v>28.098137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0563445708122</c:v>
+                  <c:v>28.896649</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.4041629078292</c:v>
+                  <c:v>27.267981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.0626352192218</c:v>
+                  <c:v>28.900512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.0225200979133</c:v>
+                  <c:v>29.489964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.9723661244007</c:v>
+                  <c:v>28.845079</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.0264746245535</c:v>
+                  <c:v>27.650134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.2821907363029</c:v>
+                  <c:v>29.035338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.8191128365151</c:v>
+                  <c:v>27.522796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96546530"/>
-        <c:axId val="61824463"/>
+        <c:axId val="94896087"/>
+        <c:axId val="10105917"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96546530"/>
+        <c:axId val="94896087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,12 +3617,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61824463"/>
+        <c:crossAx val="10105917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61824463"/>
+        <c:axId val="10105917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +3663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96546530"/>
+        <c:crossAx val="94896087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1607,17 +3722,6 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0703133078275256"/>
-          <c:y val="0.0459981600735971"/>
-          <c:w val="0.750904766828663"/>
-          <c:h val="0.865685372585097"/>
-        </c:manualLayout>
-      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
@@ -1626,7 +3730,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; cluster'!$A$10</c:f>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1680,10 +3784,11 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
-              <c:f>'N=2k; cluster'!$B$9:$Q$9</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1696,98 +3801,26 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; cluster'!$B$10:$Q$10</c:f>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>241.165675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.0233347217917</c:v>
+                  <c:v>131.591662</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.2744668668087</c:v>
+                  <c:v>98.11338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.6315005346328</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.3113087798076</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.89794880195046</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.71283300906815</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3986126302903</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.24484517032278</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.58903871794989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7421901970584</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.54179276511963</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.32983569241509</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.33441322484903</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.65138220732674</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.90458045437928</c:v>
+                  <c:v>86.861908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +3832,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; cluster'!$A$11</c:f>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1853,10 +3886,11 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
-              <c:f>'N=2k; cluster'!$B$9:$Q$9</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1869,98 +3903,26 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; cluster'!$B$11:$Q$11</c:f>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>496.780565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0726573564904</c:v>
+                  <c:v>273.7279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.2240359972676</c:v>
+                  <c:v>213.71958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.53889093920535</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.89942377579831</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.35100468141332</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2292365086698</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.75704242907374</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.74577933465462</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.99884888768788</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.62720434910159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.51621736858459</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.18841650566133</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.79530410013745</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.69934664287608</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.40577775240451</c:v>
+                  <c:v>186.350883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,7 +3934,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2k; cluster'!$A$12</c:f>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2002,11 +3964,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2021,10 +3988,11 @@
             </c:extLst>
           </c:dLbls>
           <c:xVal>
-            <c:strRef>
-              <c:f>'N=2k; cluster'!$B$9:$Q$9</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2037,109 +4005,37 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2k; cluster'!$B$12:$Q$12</c:f>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>480.732935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.236642338158</c:v>
+                  <c:v>265.863294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.927976771033</c:v>
+                  <c:v>207.719863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.1108642673486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.7928956025616</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.59182037013027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.26341863746626</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.71950235678662</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.22848273009024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.44041629078292</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.27842138356562</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.00187667482611</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.61325893264621</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.21617675889668</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.15214604908686</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.80119455228219</c:v>
+                  <c:v>177.944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="46039631"/>
-        <c:axId val="38311217"/>
+        <c:axId val="65655162"/>
+        <c:axId val="96932552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46039631"/>
+        <c:axId val="65655162"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,12 +4067,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38311217"/>
+        <c:crossAx val="96932552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38311217"/>
+        <c:axId val="96932552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +4113,2257 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46039631"/>
+        <c:crossAx val="65655162"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83268203573567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.45803044396187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.77642617521135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.81487004064986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.32445040833414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.66583424238457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.80819596329834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.31433300627586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.70159676639842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="93669907"/>
+        <c:axId val="35772220"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="93669907"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35772220"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="35772220"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93669907"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.6341017867834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.9343481320625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.4106543802837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.7435020324929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.4816802778045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.6458560596142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=25k;laptop; -O2'!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.4097981649171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.1444335425287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.5399191599604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="82119"/>
+        <c:axId val="32001825"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32001825"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="32001825"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.608056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.056517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.183118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.476274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.098662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.150715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.68434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.506033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43.639793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.441881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.132302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.549807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="28128902"/>
+        <c:axId val="96457060"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28128902"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96457060"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96457060"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28128902"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85034798827467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.59052628677407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.87326570802903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.84857400801817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3434347417998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69533800178174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86161652300854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.40674311513232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.80645238876598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="65343637"/>
+        <c:axId val="52586730"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65343637"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52586730"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52586730"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65343637"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.5173994137334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.3508762258024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.8316427007258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_sVector.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.4287004009084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.1144913933265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.3834500445435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v0_reduction.c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(old)N=2k;laptop; -O2'!$B$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.0808261504271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.2247705044107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.1613097191496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="86603775"/>
+        <c:axId val="18843260"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86603775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18843260"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="18843260"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86603775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2274,15 +6420,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
+      <xdr:colOff>229680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1058040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2290,8 +6436,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="39240" y="1950120"/>
-        <a:ext cx="3479040" cy="1955880"/>
+        <a:off x="229680" y="2684520"/>
+        <a:ext cx="3477600" cy="1954440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2304,15 +6450,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>351000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>631800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2320,8 +6466,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3691440" y="2066760"/>
-        <a:ext cx="3481200" cy="1956240"/>
+        <a:off x="3747240" y="2653920"/>
+        <a:ext cx="3479760" cy="1954800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2331,32 +6477,99 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7567560" y="2497320"/>
+        <a:ext cx="4418640" cy="1995120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <cdr:relSizeAnchor>
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.103134374676735</cdr:x>
+      <cdr:y>0.18357576873504</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="" descr=""/>
+        <cdr:cNvPicPr/>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="358920" cy="358920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:colOff>18000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1059480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:colOff>234360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="229680" y="2684520"/>
-        <a:ext cx="3479040" cy="1955880"/>
+        <a:off x="18000" y="2357280"/>
+        <a:ext cx="2963880" cy="1814400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2368,29 +6581,249 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3976560" y="2061720"/>
-        <a:ext cx="3481200" cy="1956240"/>
+        <a:off x="3143520" y="2375280"/>
+        <a:ext cx="3437280" cy="1859760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5393880" y="90360"/>
+        <a:ext cx="3472920" cy="2112480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="26640" y="2998440"/>
+        <a:ext cx="2973960" cy="1751400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>686520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3054960" y="3007440"/>
+        <a:ext cx="3447360" cy="1913760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>117360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>730800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5064840" y="442440"/>
+        <a:ext cx="3724200" cy="2193840"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="111600" y="2289240"/>
+        <a:ext cx="3015360" cy="1683360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>183240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3219480" y="2482560"/>
+        <a:ext cx="2972880" cy="1670040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>757440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5284800" y="318600"/>
+        <a:ext cx="3107160" cy="1872000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2510,16 +6943,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,22 +6972,94 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>38.009598</v>
+        <v>25.750382</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>21.644592</v>
+        <v>10.827178</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>16.455677</v>
+        <v>15.662258</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>14.736977</v>
+        <v>10.950608</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>13.276007</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>10.657489</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>12.100061</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>11.121307</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>12.155109</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>11.81695</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>13.432453</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>10.944302</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>14.49434</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>12.020738</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>14.103673</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>11.967049</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,33 +7067,158 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43.599986</v>
+        <v>58.828317</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>26.217001</v>
+        <v>23.616813</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>17.783267</v>
+        <v>32.162681</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>15.36298</v>
+        <v>22.446276</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>29.118322</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>22.417135</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>25.651885</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>22.387904</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>25.126759</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>23.524555</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>23.472056</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>24.822378</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>24.383993</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>23.022025</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>23.819703</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>22.644457</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>61.408614</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>28.5386</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>36.712483</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>27.292111</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>33.138838</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>27.97219</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>31.222553</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>28.098137</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>28.896649</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>27.267981</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>28.900512</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>29.489964</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>28.845079</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>27.650134</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>29.035338</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>27.522796</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="5" t="n">
         <v>4</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,20 +7226,67 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <f aca="false">(B2/$B$2) * 100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="n">
-        <f aca="false">(C2/$B$2) * 100</f>
-        <v>56.9450695058653</v>
+        <f aca="false">($B$2/C2)</f>
+        <v>2.37830965741951</v>
       </c>
       <c r="D6" s="1" t="n">
-        <f aca="false">(D2/$B$2) * 100</f>
-        <v>43.293478136759</v>
+        <f aca="false">($B$2/D2)</f>
+        <v>1.64410406213459</v>
       </c>
       <c r="E6" s="1" t="n">
-        <f aca="false">(E2/$B$2) * 100</f>
-        <v>38.7717254994383</v>
+        <f aca="false">($B$2/E2)</f>
+        <v>2.35150249191643</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">($B$2/F2)</f>
+        <v>1.93961798905349</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">($B$2/G2)</f>
+        <v>2.41617720646955</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">($B$2/H2)</f>
+        <v>2.12812001526273</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">($B$2/I2)</f>
+        <v>2.31540969060561</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">($B$2/J2)</f>
+        <v>2.1184821954291</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">($B$2/K2)</f>
+        <v>2.17910560677671</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">($B$2/L2)</f>
+        <v>1.91702751537638</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <f aca="false">($B$2/M2)</f>
+        <v>2.35285740470247</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">($B$2/N2)</f>
+        <v>1.77658189334595</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <f aca="false">($B$2/O2)</f>
+        <v>2.14216315171331</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <f aca="false">($B$2/P2)</f>
+        <v>1.82579261444873</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <f aca="false">($B$2/Q2)</f>
+        <v>2.15177375809191</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,37 +7294,188 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="n">
-        <f aca="false">(B3/$B$3)*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="n">
-        <f aca="false">(C3/$B$3)*100</f>
-        <v>60.1307555465729</v>
+        <f aca="false">($B$3/C3)</f>
+        <v>2.49095070533014</v>
       </c>
       <c r="D7" s="1" t="n">
-        <f aca="false">(D3/$B$3)*100</f>
-        <v>40.7873227298743</v>
+        <f aca="false">($B$3/D3)</f>
+        <v>1.82908623195933</v>
       </c>
       <c r="E7" s="1" t="n">
-        <f aca="false">(E3/$B$3)*100</f>
-        <v>35.2362039749279</v>
+        <f aca="false">($B$3/E3)</f>
+        <v>2.6208497569931</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">($B$3/F3)</f>
+        <v>2.02031961182379</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">($B$3/G3)</f>
+        <v>2.62425671255493</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">($B$3/H3)</f>
+        <v>2.29333310203129</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">($B$3/I3)</f>
+        <v>2.62768310066007</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">($B$3/J3)</f>
+        <v>2.34126164062783</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">($B$3/K3)</f>
+        <v>2.50071965229523</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">($B$3/L3)</f>
+        <v>2.50631291097806</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">($B$3/M3)</f>
+        <v>2.36997103984155</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">($B$3/N3)</f>
+        <v>2.41257930971355</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <f aca="false">($B$3/O3)</f>
+        <v>2.55530592986499</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <f aca="false">($B$3/P3)</f>
+        <v>2.46973343874187</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <f aca="false">($B$3/Q3)</f>
+        <v>2.59791246043127</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">($B$4/C4)</f>
+        <v>2.15177387818604</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">($B$4/D4)</f>
+        <v>1.67269029447014</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">($B$4/E4)</f>
+        <v>2.25004998697243</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">($B$4/F4)</f>
+        <v>1.85307082885646</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <f aca="false">($B$4/G4)</f>
+        <v>2.19534523396273</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">($B$4/H4)</f>
+        <v>1.96680309902909</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <f aca="false">($B$4/I4)</f>
+        <v>2.18550482546227</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <f aca="false">($B$4/J4)</f>
+        <v>2.12511194637136</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <f aca="false">($B$4/K4)</f>
+        <v>2.25204110271311</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <f aca="false">($B$4/L4)</f>
+        <v>2.12482789232246</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">($B$4/M4)</f>
+        <v>2.08235635689484</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <f aca="false">($B$4/N4)</f>
+        <v>2.12891127807277</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <f aca="false">($B$4/O4)</f>
+        <v>2.22091560207267</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <f aca="false">($B$4/P4)</f>
+        <v>2.11496122414693</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <f aca="false">($B$4/Q4)</f>
+        <v>2.23119097347522</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>4</v>
+      <c r="F9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,19 +7484,67 @@
       </c>
       <c r="B10" s="1" t="n">
         <f aca="false">(B6/B1)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="n">
-        <f aca="false">(C6/C1)</f>
-        <v>28.4725347529327</v>
+        <f aca="false">(C6/C1) * 100</f>
+        <v>118.915482870975</v>
       </c>
       <c r="D10" s="1" t="n">
-        <f aca="false">(D6/D1)</f>
-        <v>14.4311593789197</v>
+        <f aca="false">(D6/D1) * 100</f>
+        <v>54.8034687378197</v>
       </c>
       <c r="E10" s="1" t="n">
-        <f aca="false">(E6/E1)</f>
-        <v>9.69293137485958</v>
+        <f aca="false">(E6/E1) * 100</f>
+        <v>58.7875622979108</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">(F6/F1) * 100</f>
+        <v>38.7923597810697</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <f aca="false">(G6/G1) * 100</f>
+        <v>40.2696201078259</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">(H6/H1) * 100</f>
+        <v>30.4017145037533</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false">(I6/I1) * 100</f>
+        <v>28.9426211325701</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">(J6/J1) * 100</f>
+        <v>23.5386910603233</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <f aca="false">(K6/K1) * 100</f>
+        <v>21.7910560677671</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">(L6/L1) * 100</f>
+        <v>17.427522867058</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">(M6/M1) * 100</f>
+        <v>19.6071450391872</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <f aca="false">(N6/N1) * 100</f>
+        <v>13.6660145641997</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <f aca="false">(O6/O1) * 100</f>
+        <v>15.3011653693808</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <f aca="false">(P6/P1) * 100</f>
+        <v>12.1719507629916</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <f aca="false">(Q6/Q1) * 100</f>
+        <v>13.4485859880744</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,25 +7553,155 @@
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">(B7/B1)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="n">
-        <f aca="false">(C7/C1)</f>
-        <v>30.0653777732864</v>
+        <f aca="false">(C7/C1)*100</f>
+        <v>124.547535266507</v>
       </c>
       <c r="D11" s="1" t="n">
-        <f aca="false">(D7/D1)</f>
-        <v>13.5957742432914</v>
+        <f aca="false">(D7/D1)*100</f>
+        <v>60.9695410653111</v>
       </c>
       <c r="E11" s="1" t="n">
-        <f aca="false">(E7/E1)</f>
-        <v>8.80905099373197</v>
+        <f aca="false">(E7/E1)*100</f>
+        <v>65.5212439248274</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">(F7/F1)*100</f>
+        <v>40.4063922364757</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <f aca="false">(G7/G1)*100</f>
+        <v>43.7376118759155</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">(H7/H1)*100</f>
+        <v>32.7619014575899</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">(I7/I1)*100</f>
+        <v>32.8460387582509</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">(J7/J1)*100</f>
+        <v>26.0140182291981</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">(K7/K1)*100</f>
+        <v>25.0071965229523</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">(L7/L1)*100</f>
+        <v>22.7846628270733</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">(M7/M1)*100</f>
+        <v>19.7497586653462</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">(N7/N1)*100</f>
+        <v>18.5583023824119</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <f aca="false">(O7/O1)*100</f>
+        <v>18.2521852133213</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <f aca="false">(P7/P1)*100</f>
+        <v>16.4648895916125</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <f aca="false">(Q7/Q1)*100</f>
+        <v>16.2369528776954</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <f aca="false">B8/B1</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <f aca="false">(C8/C1)*100</f>
+        <v>107.588693909302</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">(D8/D1)*100</f>
+        <v>55.7563431490047</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">(E8/E1)*100</f>
+        <v>56.2512496743106</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">(F8/F1)*100</f>
+        <v>37.0614165771292</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <f aca="false">(G8/G1)*100</f>
+        <v>36.5890872327122</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">(H8/H1)*100</f>
+        <v>28.097187128987</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false">(I8/I1)*100</f>
+        <v>27.3188103182784</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <f aca="false">(J8/J1)*100</f>
+        <v>23.6123549596818</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <f aca="false">(K8/K1)*100</f>
+        <v>22.5204110271311</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">(L8/L1)*100</f>
+        <v>19.3166172029315</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">(M8/M1)*100</f>
+        <v>17.3529696407903</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <f aca="false">(N8/N1)*100</f>
+        <v>16.3762406005598</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <f aca="false">(O8/O1)*100</f>
+        <v>15.8636828719476</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <f aca="false">(P8/P1)*100</f>
+        <v>14.0997414943129</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <f aca="false">(Q8/Q1)*100</f>
+        <v>13.9449435842201</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2708,22 +7715,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>1</v>
@@ -2737,205 +7742,61 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>25.750382</v>
+        <v>241.165675</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>10.827178</v>
+        <v>131.591662</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>15.662258</v>
+        <v>98.11338</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>10.950608</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>13.276007</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>10.657489</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>12.100061</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>11.121307</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>12.155109</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>11.81695</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>13.432453</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>10.944302</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>14.49434</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>12.020738</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>14.103673</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>11.967049</v>
+        <v>86.861908</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>58.828317</v>
+        <v>496.780565</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>23.616813</v>
+        <v>273.7279</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>32.162681</v>
+        <v>213.71958</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>22.446276</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>29.118322</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>22.417135</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>25.651885</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>22.387904</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>25.126759</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>23.524555</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>23.472056</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>24.822378</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>24.383993</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>23.022025</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>23.819703</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>22.644457</v>
+        <v>186.350883</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>61.408614</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>28.5386</v>
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>480.732935</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>265.863294</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>36.712483</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>27.292111</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>33.138838</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>27.97219</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>31.222553</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>28.098137</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>28.896649</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>27.267981</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>28.900512</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>29.489964</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>28.845079</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>27.650134</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>29.035338</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>27.522796</v>
+        <v>207.719863</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>177.944</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
@@ -2949,250 +7810,73 @@
       <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0</v>
+        <f aca="false">($B$2/B2)</f>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="n">
-        <f aca="false">(C2/$B$2) * 100</f>
-        <v>42.0466694435834</v>
+        <f aca="false">($B$2/C2)</f>
+        <v>1.83268203573567</v>
       </c>
       <c r="D6" s="1" t="n">
-        <f aca="false">(D2/$B$2) * 100</f>
-        <v>60.8234006004261</v>
+        <f aca="false">($B$2/D2)</f>
+        <v>2.45803044396187</v>
       </c>
       <c r="E6" s="1" t="n">
-        <f aca="false">(E2/$B$2) * 100</f>
-        <v>42.5260021385314</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">(F2/$B$2) * 100</f>
-        <v>51.5565438990381</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">(G2/$B$2) * 100</f>
-        <v>41.3876928117028</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">(H2/$B$2) * 100</f>
-        <v>46.989831063477</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">(I2/$B$2) * 100</f>
-        <v>43.1889010423224</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">(J2/$B$2) * 100</f>
-        <v>47.203606532905</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">(K2/$B$2) * 100</f>
-        <v>45.8903871794989</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">(L2/$B$2) * 100</f>
-        <v>52.1640921676424</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">(M2/$B$2) * 100</f>
-        <v>42.5015131814355</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <f aca="false">(N2/$B$2) * 100</f>
-        <v>56.2878640013962</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <f aca="false">(O2/$B$2) * 100</f>
-        <v>46.6817851478864</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <f aca="false">(P2/$B$2) * 100</f>
-        <v>54.7707331099011</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <f aca="false">(Q2/$B$2) * 100</f>
-        <v>46.4732872700685</v>
+        <f aca="false">($B$2/E2)</f>
+        <v>2.77642617521135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">($B$3/B3)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="C7" s="1" t="n">
-        <f aca="false">(C3/$B$3)*100</f>
-        <v>40.1453147129808</v>
+        <f aca="false">($B$3/C3)</f>
+        <v>1.81487004064986</v>
       </c>
       <c r="D7" s="1" t="n">
-        <f aca="false">(D3/$B$3)*100</f>
-        <v>54.6721079918027</v>
+        <f aca="false">($B$3/D3)</f>
+        <v>2.32445040833414</v>
       </c>
       <c r="E7" s="1" t="n">
-        <f aca="false">(E3/$B$3)*100</f>
-        <v>38.1555637568214</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">(F3/$B$3)*100</f>
-        <v>49.4971188789916</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">(G3/$B$3)*100</f>
-        <v>38.1060280884799</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">(H3/$B$3)*100</f>
-        <v>43.6046555606886</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <f aca="false">(I3/$B$3)*100</f>
-        <v>38.0563394325899</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <f aca="false">(J3/$B$3)*100</f>
-        <v>42.7120140118916</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <f aca="false">(K3/$B$3)*100</f>
-        <v>39.9884888768788</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <f aca="false">(L3/$B$3)*100</f>
-        <v>39.8992478401175</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">(M3/$B$3)*100</f>
-        <v>42.1946084230151</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <f aca="false">(N3/$B$3)*100</f>
-        <v>41.4494145735973</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <f aca="false">(O3/$B$3)*100</f>
-        <v>39.1342574019243</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <f aca="false">(P3/$B$3)*100</f>
-        <v>40.4901996431412</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <f aca="false">(Q3/$B$3)*100</f>
-        <v>38.4924440384722</v>
+        <f aca="false">($B$3/E3)</f>
+        <v>2.66583424238457</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">(C4/$B$4)*100</f>
-        <v>46.4732846763159</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">(D4/$B$4)*100</f>
-        <v>59.7839303130991</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">(E4/$B$4)*100</f>
-        <v>44.4434570693942</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">(F4/$B$4)*100</f>
-        <v>53.9644780128078</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">(G4/$B$4)*100</f>
-        <v>45.5509222207816</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">(H4/$B$4)*100</f>
-        <v>50.8439304622638</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">(I4/$B$4)*100</f>
-        <v>45.756018854293</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">(J4/$B$4)*100</f>
-        <v>47.0563445708122</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">(K4/$B$4)*100</f>
-        <v>44.4041629078292</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <f aca="false">(L4/$B$4)*100</f>
-        <v>47.0626352192218</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <f aca="false">(M4/$B$4)*100</f>
-        <v>48.0225200979133</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <f aca="false">(N4/$B$4)*100</f>
-        <v>46.9723661244007</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <f aca="false">(O4/$B$4)*100</f>
-        <v>45.0264746245535</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <f aca="false">(P4/$B$4)*100</f>
-        <v>47.2821907363029</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <f aca="false">(Q4/$B$4)*100</f>
-        <v>44.8191128365151</v>
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">($B$4/B4)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">($B$4/C4)</f>
+        <v>1.80819596329834</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">($B$4/D4)</f>
+        <v>2.31433300627586</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">($B$4/E4)</f>
+        <v>2.70159676639842</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
+      <c r="A9" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
@@ -3206,248 +7890,76 @@
       <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
+      <c r="A10" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <f aca="false">(B6/B1)</f>
-        <v>0</v>
+        <f aca="false">(B6/B9)*100</f>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="n">
-        <f aca="false">(C6/C1)</f>
-        <v>21.0233347217917</v>
+        <f aca="false">(C6/C9)*100</f>
+        <v>91.6341017867834</v>
       </c>
       <c r="D10" s="1" t="n">
-        <f aca="false">(D6/D1)</f>
-        <v>20.2744668668087</v>
+        <f aca="false">(D6/D9)*100</f>
+        <v>81.9343481320625</v>
       </c>
       <c r="E10" s="1" t="n">
-        <f aca="false">(E6/E1)</f>
-        <v>10.6315005346328</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <f aca="false">(F6/F1)</f>
-        <v>10.3113087798076</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">(G6/G1)</f>
-        <v>6.89794880195046</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">(H6/H1)</f>
-        <v>6.71283300906815</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <f aca="false">(I6/I1)</f>
-        <v>5.3986126302903</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <f aca="false">(J6/J1)</f>
-        <v>5.24484517032278</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <f aca="false">(K6/K1)</f>
-        <v>4.58903871794989</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <f aca="false">(L6/L1)</f>
-        <v>4.7421901970584</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">(M6/M1)</f>
-        <v>3.54179276511963</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <f aca="false">(N6/N1)</f>
-        <v>4.32983569241509</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <f aca="false">(O6/O1)</f>
-        <v>3.33441322484903</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <f aca="false">(P6/P1)</f>
-        <v>3.65138220732674</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <f aca="false">(Q6/Q1)</f>
-        <v>2.90458045437928</v>
+        <f aca="false">(E6/E9)*100</f>
+        <v>69.4106543802837</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
+      <c r="A11" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="n">
-        <f aca="false">(B7/B1)</f>
-        <v>0</v>
+        <f aca="false">(B7/B9)*100</f>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="n">
-        <f aca="false">(C7/C1)</f>
-        <v>20.0726573564904</v>
+        <f aca="false">(C7/C9)*100</f>
+        <v>90.7435020324929</v>
       </c>
       <c r="D11" s="1" t="n">
-        <f aca="false">(D7/D1)</f>
-        <v>18.2240359972676</v>
+        <f aca="false">(D7/D9)*100</f>
+        <v>77.4816802778045</v>
       </c>
       <c r="E11" s="1" t="n">
-        <f aca="false">(E7/E1)</f>
-        <v>9.53889093920535</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">(F7/F1)</f>
-        <v>9.89942377579831</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">(G7/G1)</f>
-        <v>6.35100468141332</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">(H7/H1)</f>
-        <v>6.2292365086698</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <f aca="false">(I7/I1)</f>
-        <v>4.75704242907374</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <f aca="false">(J7/J1)</f>
-        <v>4.74577933465462</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <f aca="false">(K7/K1)</f>
-        <v>3.99884888768788</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <f aca="false">(L7/L1)</f>
-        <v>3.62720434910159</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">(M7/M1)</f>
-        <v>3.51621736858459</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <f aca="false">(N7/N1)</f>
-        <v>3.18841650566133</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <f aca="false">(O7/O1)</f>
-        <v>2.79530410013745</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <f aca="false">(P7/P1)</f>
-        <v>2.69934664287608</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <f aca="false">(Q7/Q1)</f>
-        <v>2.40577775240451</v>
+        <f aca="false">(E7/E9)*100</f>
+        <v>66.6458560596142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <f aca="false">B8/B1</f>
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <f aca="false">(B8/B9)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <f aca="false">(C8/C9)*100</f>
+        <v>90.4097981649171</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">(D8/D9)*100</f>
+        <v>77.1444335425287</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">(E8/E9)*100</f>
+        <v>67.5399191599604</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <f aca="false">C8/C1</f>
-        <v>23.236642338158</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">D8/D1</f>
-        <v>19.927976771033</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <f aca="false">E8/E1</f>
-        <v>11.1108642673486</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <f aca="false">F8/F1</f>
-        <v>10.7928956025616</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <f aca="false">G8/G1</f>
-        <v>7.59182037013027</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">H8/H1</f>
-        <v>7.26341863746626</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <f aca="false">I8/I1</f>
-        <v>5.71950235678662</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <f aca="false">J8/J1</f>
-        <v>5.22848273009024</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <f aca="false">K8/K1</f>
-        <v>4.44041629078292</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <f aca="false">L8/L1</f>
-        <v>4.27842138356562</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <f aca="false">M8/M1</f>
-        <v>4.00187667482611</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <f aca="false">N8/N1</f>
-        <v>3.61325893264621</v>
-      </c>
-      <c r="O12" s="5" t="n">
-        <f aca="false">O8/O1</f>
-        <v>3.21617675889668</v>
-      </c>
-      <c r="P12" s="5" t="n">
-        <f aca="false">P8/P1</f>
-        <v>3.15214604908686</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <f aca="false">Q8/Q1</f>
-        <v>2.80119455228219</v>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3460,4 +7972,601 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>18.608056</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>10.056517</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>7.183118</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>6.476274</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>39.098662</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>21.150715</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>16.68434</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>14.506033</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43.639793</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>23.441881</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>18.132302</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>15.549807</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">($B$2/B2)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">($B$2/C2)</f>
+        <v>1.85034798827467</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">($B$2/D2)</f>
+        <v>2.59052628677407</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">($B$2/E2)</f>
+        <v>2.87326570802903</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">$B$3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">$B$3/C3</f>
+        <v>1.84857400801817</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">$B$3/D3</f>
+        <v>2.3434347417998</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">$B$3/E3</f>
+        <v>2.69533800178174</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">($B$4/B4)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <f aca="false">($B$4/C4)</f>
+        <v>1.86161652300854</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">($B$4/D4)</f>
+        <v>2.40674311513232</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">($B$4/E4)</f>
+        <v>2.80645238876598</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <f aca="false">(B7/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <f aca="false">(C7/C1)*100</f>
+        <v>92.5173994137334</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">(D7/D1)*100</f>
+        <v>86.3508762258024</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">(E7/E1)*100</f>
+        <v>71.8316427007258</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <f aca="false">(B8/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <f aca="false">(C8/C1)*100</f>
+        <v>92.4287004009084</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">(D8/D1)*100</f>
+        <v>78.1144913933265</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">(E8/E1)*100</f>
+        <v>67.3834500445435</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <f aca="false">(B9/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <f aca="false">(C9/C1)*100</f>
+        <v>93.0808261504271</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">(D9/D1)*100</f>
+        <v>80.2247705044107</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <f aca="false">(E9/E1)*100</f>
+        <v>70.1613097191496</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>18.418944</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9.762105</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>7.075675</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>6.447364</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>39.274089</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>20.374852</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>15.632902</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>13.656468</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>42.481455</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>22.85788</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>17.247888</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>14.922749</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">($B$2/B2)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <f aca="false">($B$2/C2)</f>
+        <v>1.88677995166002</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">($B$2/D2)</f>
+        <v>2.60313595522689</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">($B$2/E2)</f>
+        <v>2.85681776304238</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">($B$3/B3)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">($B$3/C3)</f>
+        <v>1.92757665184513</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">($B$3/D3)</f>
+        <v>2.51227117012567</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">($B$3/E3)</f>
+        <v>2.8758599221995</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">($B$4/B4)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">($B$4/C4)</f>
+        <v>1.85850371950505</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">($B$4/D4)</f>
+        <v>2.46299459968664</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">($B$4/E4)</f>
+        <v>2.84675799345013</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <f aca="false">(B6/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <f aca="false">(C6/C1)*100</f>
+        <v>94.3389975830008</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">(D6/D1)*100</f>
+        <v>86.7711985075629</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">(E6/E1)*100</f>
+        <v>71.4204440760596</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <f aca="false">(B7/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <f aca="false">(C7/C1)*100</f>
+        <v>96.3788325922564</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">(D7/D1)*100</f>
+        <v>83.7423723375225</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">(E7/E1)*100</f>
+        <v>71.8964980549876</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <f aca="false">(B8/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <f aca="false">(C8/C1)*100</f>
+        <v>92.9251859752523</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">(D8/D1)*100</f>
+        <v>82.0998199895547</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">(E8/E1)*100</f>
+        <v>71.1689498362534</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/OpenMP_Lab/result.xlsx
+++ b/OpenMP_Lab/result.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="(old)N=2k; cluster; -O3" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="(old)N=25k;laptop; -O2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="(old)N=2k;laptop; -O2" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="(old)N=2k; laptop; -O3" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="N=25k; server; -O2" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t xml:space="preserve">Время</t>
   </si>
@@ -193,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,6 +248,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,11 +874,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44954932"/>
-        <c:axId val="75096667"/>
+        <c:axId val="98810486"/>
+        <c:axId val="5563406"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44954932"/>
+        <c:axId val="98810486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,12 +910,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75096667"/>
+        <c:crossAx val="5563406"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75096667"/>
+        <c:axId val="5563406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +956,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44954932"/>
+        <c:crossAx val="98810486"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1326,11 +1335,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66853871"/>
-        <c:axId val="77957551"/>
+        <c:axId val="64126876"/>
+        <c:axId val="74293274"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66853871"/>
+        <c:axId val="64126876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,12 +1371,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77957551"/>
+        <c:crossAx val="74293274"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77957551"/>
+        <c:axId val="74293274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1417,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66853871"/>
+        <c:crossAx val="64126876"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1787,11 +1796,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47042040"/>
-        <c:axId val="61085496"/>
+        <c:axId val="36316101"/>
+        <c:axId val="43320190"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47042040"/>
+        <c:axId val="36316101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,12 +1832,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61085496"/>
+        <c:crossAx val="43320190"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61085496"/>
+        <c:axId val="43320190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,7 +1878,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47042040"/>
+        <c:crossAx val="36316101"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2237,11 +2246,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5481063"/>
-        <c:axId val="43842329"/>
+        <c:axId val="40242592"/>
+        <c:axId val="59329043"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5481063"/>
+        <c:axId val="40242592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,12 +2282,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43842329"/>
+        <c:crossAx val="59329043"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43842329"/>
+        <c:axId val="59329043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2328,632 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5481063"/>
+        <c:crossAx val="40242592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0704309418646293"/>
+          <c:y val="0.0459696386572589"/>
+          <c:w val="0.750507341530381"/>
+          <c:h val="0.864870643574941"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="74389918"/>
+        <c:axId val="51133715"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74389918"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51133715"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51133715"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74389918"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0702264196633975"/>
+          <c:y val="0.0461206896551724"/>
+          <c:w val="0.750454050127134"/>
+          <c:h val="0.864870689655172"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="15817218"/>
+        <c:axId val="62769155"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="15817218"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62769155"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62769155"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15817218"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="98997022"/>
+        <c:axId val="90551104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98997022"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90551104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90551104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98997022"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2914,11 +3548,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85202584"/>
-        <c:axId val="42696965"/>
+        <c:axId val="17282476"/>
+        <c:axId val="69085007"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85202584"/>
+        <c:axId val="17282476"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2950,12 +3584,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42696965"/>
+        <c:crossAx val="69085007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42696965"/>
+        <c:axId val="69085007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,7 +3630,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85202584"/>
+        <c:crossAx val="17282476"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3581,11 +4215,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94896087"/>
-        <c:axId val="10105917"/>
+        <c:axId val="65496129"/>
+        <c:axId val="66491519"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94896087"/>
+        <c:axId val="65496129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3617,12 +4251,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10105917"/>
+        <c:crossAx val="66491519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10105917"/>
+        <c:axId val="66491519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3663,7 +4297,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94896087"/>
+        <c:crossAx val="65496129"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4031,11 +4665,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65655162"/>
-        <c:axId val="96932552"/>
+        <c:axId val="41471991"/>
+        <c:axId val="58655871"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65655162"/>
+        <c:axId val="41471991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4067,12 +4701,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96932552"/>
+        <c:crossAx val="58655871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96932552"/>
+        <c:axId val="58655871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65655162"/>
+        <c:crossAx val="41471991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4481,11 +5115,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93669907"/>
-        <c:axId val="35772220"/>
+        <c:axId val="23443392"/>
+        <c:axId val="66364701"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93669907"/>
+        <c:axId val="23443392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,12 +5151,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35772220"/>
+        <c:crossAx val="66364701"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35772220"/>
+        <c:axId val="66364701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4563,7 +5197,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93669907"/>
+        <c:crossAx val="23443392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4931,11 +5565,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82119"/>
-        <c:axId val="32001825"/>
+        <c:axId val="28474040"/>
+        <c:axId val="32868096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82119"/>
+        <c:axId val="28474040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4967,12 +5601,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32001825"/>
+        <c:crossAx val="32868096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32001825"/>
+        <c:axId val="32868096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5013,7 +5647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82119"/>
+        <c:crossAx val="28474040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5381,11 +6015,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28128902"/>
-        <c:axId val="96457060"/>
+        <c:axId val="88056254"/>
+        <c:axId val="14610350"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28128902"/>
+        <c:axId val="88056254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5417,12 +6051,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96457060"/>
+        <c:crossAx val="14610350"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96457060"/>
+        <c:axId val="14610350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5463,7 +6097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28128902"/>
+        <c:crossAx val="88056254"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5831,11 +6465,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65343637"/>
-        <c:axId val="52586730"/>
+        <c:axId val="48121563"/>
+        <c:axId val="2017920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65343637"/>
+        <c:axId val="48121563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5867,12 +6501,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52586730"/>
+        <c:crossAx val="2017920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52586730"/>
+        <c:axId val="2017920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +6547,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65343637"/>
+        <c:crossAx val="48121563"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6281,11 +6915,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86603775"/>
-        <c:axId val="18843260"/>
+        <c:axId val="86312860"/>
+        <c:axId val="54502703"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86603775"/>
+        <c:axId val="86312860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6317,12 +6951,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18843260"/>
+        <c:crossAx val="54502703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18843260"/>
+        <c:axId val="54502703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6363,7 +6997,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86603775"/>
+        <c:crossAx val="86312860"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6832,6 +7466,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="111600" y="2289240"/>
+        <a:ext cx="3015360" cy="1683360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>570240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>183240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3219480" y="2482560"/>
+        <a:ext cx="2972880" cy="1670040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>677160</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>77760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6017400" y="3895200"/>
+        <a:ext cx="3107160" cy="1872000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
@@ -8249,8 +8978,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8569,4 +9298,438 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>232.864778</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>140.838924</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>98.714937</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>86.914779</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>74.887139</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>76.104112</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>73.396486</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>65.614899</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>60.244432</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>62.885586</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>65.750491</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>57.073289</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>65.096366</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>63.530195</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>60.45161</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>57.551181</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>511.448068</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>352.437573</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>239.378091</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>166.067247</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>159.360383</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>132.19364</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>129.019905</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>117.32097</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>121.7052</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>113.50678</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>121.781834</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>109.85228</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>125.211012</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>132.125584</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>119.677091</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>120.171937</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>42.481455</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>22.85788</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>17.247888</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>14.922749</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">($B$2/B2)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <f aca="false">($B$2/C2)</f>
+        <v>1.65341207804172</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">($B$2/D2)</f>
+        <v>2.35896192690677</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">($B$2/E2)</f>
+        <v>2.67923108911086</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">($B$3/B3)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">($B$3/C3)</f>
+        <v>1.45117350470462</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">($B$3/D3)</f>
+        <v>2.13657008401826</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">($B$3/E3)</f>
+        <v>3.07976483767446</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">($B$4/B4)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">($B$4/C4)</f>
+        <v>1.85850371950505</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">($B$4/D4)</f>
+        <v>2.46299459968664</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">($B$4/E4)</f>
+        <v>2.84675799345013</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <f aca="false">(B6/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <f aca="false">(C6/C1)*100</f>
+        <v>82.670603902086</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">(D6/D1)*100</f>
+        <v>78.6320642302255</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">(E6/E1)*100</f>
+        <v>66.9807772277716</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <f aca="false">(B7/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <f aca="false">(C7/C1)*100</f>
+        <v>72.558675235231</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">(D7/D1)*100</f>
+        <v>71.2190028006086</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">(E7/E1)*100</f>
+        <v>76.9941209418616</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <f aca="false">(B8/B1)*100</f>
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <f aca="false">(C8/C1)*100</f>
+        <v>92.9251859752523</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">(D8/D1)*100</f>
+        <v>82.0998199895547</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">(E8/E1)*100</f>
+        <v>71.1689498362534</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/OpenMP_Lab/result.xlsx
+++ b/OpenMP_Lab/result.xlsx
@@ -176,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -216,23 +216,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +302,12 @@
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3838"/>
+        <bgColor rgb="FFFF420E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -352,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,6 +416,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +448,7 @@
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF83CAFF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFF3838"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -509,10 +504,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0704079519569269"/>
-          <c:y val="0.0460659664639764"/>
-          <c:w val="0.75005177055291"/>
-          <c:h val="0.864381794730053"/>
+          <c:x val="0.0704152428290359"/>
+          <c:y val="0.0460744563214154"/>
+          <c:w val="0.749922336129233"/>
+          <c:h val="0.864172502764467"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1040,11 +1035,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72457374"/>
-        <c:axId val="54395808"/>
+        <c:axId val="14526227"/>
+        <c:axId val="41013607"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72457374"/>
+        <c:axId val="14526227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,12 +1071,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54395808"/>
+        <c:crossAx val="41013607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54395808"/>
+        <c:axId val="41013607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1117,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72457374"/>
+        <c:crossAx val="14526227"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1186,10 +1181,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.070456173871507"/>
-          <c:y val="0.0459991442019683"/>
-          <c:w val="0.750059708621925"/>
-          <c:h val="0.864356011981172"/>
+          <c:x val="0.0704645885584617"/>
+          <c:y val="0.0460089878022684"/>
+          <c:w val="0.749910426370477"/>
+          <c:h val="0.864112989514231"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1501,11 +1496,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4055498"/>
-        <c:axId val="44111437"/>
+        <c:axId val="25477058"/>
+        <c:axId val="21771406"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4055498"/>
+        <c:axId val="25477058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,12 +1532,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44111437"/>
+        <c:crossAx val="21771406"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44111437"/>
+        <c:axId val="21771406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4055498"/>
+        <c:crossAx val="25477058"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1647,10 +1642,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0702519379844961"/>
-          <c:y val="0.0461505283588527"/>
-          <c:w val="0.75"/>
-          <c:h val="0.864136295018331"/>
+          <c:x val="0.0702604482132041"/>
+          <c:y val="0.046160483175151"/>
+          <c:w val="0.749969715324046"/>
+          <c:h val="0.863891285591027"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1962,11 +1957,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19075078"/>
-        <c:axId val="8544273"/>
+        <c:axId val="50792754"/>
+        <c:axId val="68976321"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19075078"/>
+        <c:axId val="50792754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,12 +1993,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8544273"/>
+        <c:crossAx val="68976321"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8544273"/>
+        <c:axId val="68976321"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2039,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19075078"/>
+        <c:crossAx val="50792754"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2412,11 +2407,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63747146"/>
-        <c:axId val="13462590"/>
+        <c:axId val="44410301"/>
+        <c:axId val="5262873"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63747146"/>
+        <c:axId val="44410301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,12 +2443,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13462590"/>
+        <c:crossAx val="5262873"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13462590"/>
+        <c:axId val="5262873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,7 +2489,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63747146"/>
+        <c:crossAx val="44410301"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3240,11 +3235,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="98198430"/>
-        <c:axId val="29111742"/>
+        <c:axId val="83672806"/>
+        <c:axId val="76733989"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98198430"/>
+        <c:axId val="83672806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,12 +3316,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29111742"/>
+        <c:crossAx val="76733989"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29111742"/>
+        <c:axId val="76733989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3403,7 +3398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98198430"/>
+        <c:crossAx val="83672806"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4151,11 +4146,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="44524539"/>
-        <c:axId val="29439224"/>
+        <c:axId val="90007145"/>
+        <c:axId val="48453689"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44524539"/>
+        <c:axId val="90007145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,7 +4227,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29439224"/>
+        <c:crossAx val="48453689"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,7 +4235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29439224"/>
+        <c:axId val="48453689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,7 +4312,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44524539"/>
+        <c:crossAx val="90007145"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5065,11 +5060,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="52871612"/>
-        <c:axId val="62120044"/>
+        <c:axId val="14193610"/>
+        <c:axId val="27936295"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52871612"/>
+        <c:axId val="14193610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5146,7 +5141,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62120044"/>
+        <c:crossAx val="27936295"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5154,7 +5149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62120044"/>
+        <c:axId val="27936295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5231,7 +5226,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52871612"/>
+        <c:crossAx val="14193610"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5331,10 +5326,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0704277116736344"/>
-          <c:y val="0.0460120174499959"/>
-          <c:w val="0.750356043552166"/>
-          <c:h val="0.864597909292946"/>
+          <c:x val="0.0704309473490765"/>
+          <c:y val="0.0460158050707935"/>
+          <c:w val="0.750298630892217"/>
+          <c:h val="0.864504445176161"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5688,11 +5683,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63831694"/>
-        <c:axId val="51988085"/>
+        <c:axId val="38330151"/>
+        <c:axId val="32830792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63831694"/>
+        <c:axId val="38330151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5760,12 +5755,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51988085"/>
+        <c:crossAx val="32830792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51988085"/>
+        <c:axId val="32830792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5842,7 +5837,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63831694"/>
+        <c:crossAx val="38330151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5942,10 +5937,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0702374695398729"/>
-          <c:y val="0.0461456388370232"/>
-          <c:w val="0.750298628697023"/>
-          <c:h val="0.864630568151507"/>
+          <c:x val="0.0702408256880734"/>
+          <c:y val="0.0461487162387463"/>
+          <c:w val="0.750238914373089"/>
+          <c:h val="0.864554851617206"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6299,11 +6294,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44479527"/>
-        <c:axId val="11209765"/>
+        <c:axId val="34642214"/>
+        <c:axId val="44903516"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44479527"/>
+        <c:axId val="34642214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6371,12 +6366,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11209765"/>
+        <c:crossAx val="44903516"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11209765"/>
+        <c:axId val="44903516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,7 +6449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44479527"/>
+        <c:crossAx val="34642214"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6900,11 +6895,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50554480"/>
-        <c:axId val="94310966"/>
+        <c:axId val="86883656"/>
+        <c:axId val="70259056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50554480"/>
+        <c:axId val="86883656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6972,12 +6967,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94310966"/>
+        <c:crossAx val="70259056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94310966"/>
+        <c:axId val="70259056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,7 +7049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50554480"/>
+        <c:crossAx val="86883656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7663,11 +7658,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43528323"/>
-        <c:axId val="72993706"/>
+        <c:axId val="69254250"/>
+        <c:axId val="31306314"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43528323"/>
+        <c:axId val="69254250"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7744,12 +7739,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72993706"/>
+        <c:crossAx val="31306314"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72993706"/>
+        <c:axId val="31306314"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7826,7 +7821,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43528323"/>
+        <c:crossAx val="69254250"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7890,10 +7885,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.070364238410596"/>
-          <c:y val="0.0460574797347089"/>
-          <c:w val="0.75"/>
-          <c:h val="0.864222549742078"/>
+          <c:x val="0.0703715202318121"/>
+          <c:y val="0.0460659664639764"/>
+          <c:w val="0.749974128117562"/>
+          <c:h val="0.864013266998342"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8421,11 +8416,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2922257"/>
-        <c:axId val="17069890"/>
+        <c:axId val="1260882"/>
+        <c:axId val="91546109"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2922257"/>
+        <c:axId val="1260882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8457,12 +8452,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17069890"/>
+        <c:crossAx val="91546109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17069890"/>
+        <c:axId val="91546109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8503,7 +8498,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2922257"/>
+        <c:crossAx val="1260882"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9215,11 +9210,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70538695"/>
-        <c:axId val="24874809"/>
+        <c:axId val="2747593"/>
+        <c:axId val="3216506"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70538695"/>
+        <c:axId val="2747593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9296,12 +9291,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24874809"/>
+        <c:crossAx val="3216506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24874809"/>
+        <c:axId val="3216506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9378,7 +9373,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70538695"/>
+        <c:crossAx val="2747593"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9987,11 +9982,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34408234"/>
-        <c:axId val="13965063"/>
+        <c:axId val="16169183"/>
+        <c:axId val="12160718"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34408234"/>
+        <c:axId val="16169183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10068,12 +10063,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13965063"/>
+        <c:crossAx val="12160718"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13965063"/>
+        <c:axId val="12160718"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10150,7 +10145,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34408234"/>
+        <c:crossAx val="16169183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10759,11 +10754,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12970378"/>
-        <c:axId val="47790593"/>
+        <c:axId val="90358050"/>
+        <c:axId val="3556234"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12970378"/>
+        <c:axId val="90358050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10840,12 +10835,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47790593"/>
+        <c:crossAx val="3556234"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47790593"/>
+        <c:axId val="3556234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10922,7 +10917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12970378"/>
+        <c:crossAx val="90358050"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11026,7 +11021,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$H$2</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11081,7 +11076,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11102,7 +11097,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$2:$L$2</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11128,7 +11123,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$H$3</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11183,7 +11178,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11204,7 +11199,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$3:$L$3</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11230,7 +11225,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$H$4</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11285,7 +11280,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11306,7 +11301,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$4:$L$4</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11332,7 +11327,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$H$5</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11387,7 +11382,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11408,7 +11403,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$5:$L$5</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11434,7 +11429,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$H$6</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11489,7 +11484,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11510,7 +11505,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$I$6:$L$6</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$H$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11531,11 +11526,108 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93801037"/>
-        <c:axId val="26125110"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2.5k -O2 prof static'!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N=2.5k -O2 prof static'!$H$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2.5k -O2 prof static'!$H$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.76437551676352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.14435393673651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.27333957855259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="48212553"/>
+        <c:axId val="15866465"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93801037"/>
+        <c:axId val="48212553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11612,12 +11704,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26125110"/>
+        <c:crossAx val="15866465"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26125110"/>
+        <c:axId val="15866465"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11694,7 +11786,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93801037"/>
+        <c:crossAx val="48212553"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11798,7 +11890,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$O$2</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11853,7 +11945,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$1:$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -11873,7 +11965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$2:$S$2</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11899,7 +11991,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$O$3</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11954,7 +12046,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$1:$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -11974,7 +12066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$3:$S$3</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12000,7 +12092,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$O$4</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12055,7 +12147,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$1:$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -12075,7 +12167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$4:$S$4</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$4:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12101,7 +12193,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$O$5</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12156,7 +12248,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$1:$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -12176,7 +12268,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$5:$S$5</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$5:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12202,7 +12294,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$O$6</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12257,7 +12349,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$1:$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -12277,7 +12369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof static'!$P$6:$S$6</c:f>
+              <c:f>'N=2.5k -O2 prof static'!$N$6:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12292,6 +12384,102 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54.6213912493818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2.5k -O2 prof static'!$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'N=2.5k -O2 prof static'!$N$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'N=2.5k -O2 prof static'!$N$7:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.2187758381758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.6088484184128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.4167447319073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12306,11 +12494,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="4726383"/>
-        <c:axId val="91128904"/>
+        <c:axId val="45555440"/>
+        <c:axId val="49750514"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4726383"/>
+        <c:axId val="45555440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12387,7 +12575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91128904"/>
+        <c:crossAx val="49750514"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12395,7 +12583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91128904"/>
+        <c:axId val="49750514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12472,7 +12660,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4726383"/>
+        <c:crossAx val="45555440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12573,10 +12761,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.099250936329588"/>
-          <c:y val="0.252901514314137"/>
-          <c:w val="0.668668474751388"/>
-          <c:h val="0.539073726097049"/>
+          <c:x val="0.0992573458185341"/>
+          <c:y val="0.25281892549193"/>
+          <c:w val="0.668647077817243"/>
+          <c:h val="0.539022772496131"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -13092,11 +13280,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52603664"/>
-        <c:axId val="88788699"/>
+        <c:axId val="43902431"/>
+        <c:axId val="58806"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52603664"/>
+        <c:axId val="43902431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13173,12 +13361,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88788699"/>
+        <c:crossAx val="58806"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88788699"/>
+        <c:axId val="58806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13255,7 +13443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52603664"/>
+        <c:crossAx val="43902431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13359,7 +13547,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$H$2:$H$2</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13414,7 +13602,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13435,7 +13623,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$2:$L$2</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13461,7 +13649,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$H$3:$H$3</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13516,7 +13704,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13537,7 +13725,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$3:$L$3</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13563,7 +13751,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$H$4:$H$4</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13618,7 +13806,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13639,7 +13827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$4:$L$4</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13665,7 +13853,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$H$5:$H$5</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13720,7 +13908,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13741,7 +13929,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$5:$L$5</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13767,7 +13955,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$H$6:$H$6</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13822,7 +14010,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$1:$L$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13843,7 +14031,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$I$6:$L$6</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$H$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13864,11 +14052,108 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37935869"/>
-        <c:axId val="26993764"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2.5k -O2 prof guided'!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N=2.5k -O2 prof guided'!$H$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2.5k -O2 prof guided'!$H$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79846565078398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.63502052438874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.58484351566992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="96125031"/>
+        <c:axId val="70709303"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37935869"/>
+        <c:axId val="96125031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13945,12 +14230,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26993764"/>
+        <c:crossAx val="70709303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26993764"/>
+        <c:axId val="70709303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14027,7 +14312,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37935869"/>
+        <c:crossAx val="96125031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14131,7 +14416,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$O$2:$O$2</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14186,7 +14471,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14207,7 +14492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$2:$S$2</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14233,7 +14518,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$O$3:$O$3</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14288,7 +14573,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14309,7 +14594,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$3:$S$3</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14335,7 +14620,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$O$4:$O$4</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14390,7 +14675,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14411,7 +14696,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$4:$S$4</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$4:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14437,7 +14722,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$O$5:$O$5</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14492,7 +14777,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14513,7 +14798,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$5:$S$5</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$5:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14539,7 +14824,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'N=2.5k -O2 prof guided'!$O$6:$O$6</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14594,7 +14879,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$1:$S$1</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$1:$Q$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14615,7 +14900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N=2.5k -O2 prof guided'!$P$6:$S$6</c:f>
+              <c:f>'N=2.5k -O2 prof guided'!$N$6:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -14636,11 +14921,108 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34573850"/>
-        <c:axId val="64719941"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N=2.5k -O2 prof guided'!$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N=2.5k -O2 prof guided'!$N$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N=2.5k -O2 prof guided'!$N$7:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.9232825391988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.8755131097186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.810543945874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="4785741"/>
+        <c:axId val="25011415"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34573850"/>
+        <c:axId val="4785741"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14717,12 +15099,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64719941"/>
+        <c:crossAx val="25011415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64719941"/>
+        <c:axId val="25011415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14799,7 +15181,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34573850"/>
+        <c:crossAx val="4785741"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15204,11 +15586,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="89090238"/>
-        <c:axId val="51921790"/>
+        <c:axId val="31228814"/>
+        <c:axId val="80600891"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89090238"/>
+        <c:axId val="31228814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15285,12 +15667,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51921790"/>
+        <c:crossAx val="80600891"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51921790"/>
+        <c:axId val="80600891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15367,7 +15749,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89090238"/>
+        <c:crossAx val="31228814"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15772,11 +16154,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36733290"/>
-        <c:axId val="70782391"/>
+        <c:axId val="72763008"/>
+        <c:axId val="77864466"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36733290"/>
+        <c:axId val="72763008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15853,12 +16235,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70782391"/>
+        <c:crossAx val="77864466"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70782391"/>
+        <c:axId val="77864466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15935,7 +16317,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36733290"/>
+        <c:crossAx val="72763008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16519,11 +16901,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8641065"/>
-        <c:axId val="78850580"/>
+        <c:axId val="87686331"/>
+        <c:axId val="3288526"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8641065"/>
+        <c:axId val="87686331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16555,12 +16937,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78850580"/>
+        <c:crossAx val="3288526"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78850580"/>
+        <c:axId val="3288526"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16601,7 +16983,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8641065"/>
+        <c:crossAx val="87686331"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16666,12 +17048,20 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Эффективность
 сравнение типов</a:t>
@@ -16727,11 +17117,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -16824,11 +17219,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -16921,11 +17321,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -16983,11 +17388,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="46800041"/>
-        <c:axId val="27122826"/>
+        <c:axId val="51266239"/>
+        <c:axId val="50261944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46800041"/>
+        <c:axId val="51266239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17010,12 +17415,20 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
                   <a:t>потоков</a:t>
                 </a:r>
@@ -17030,7 +17443,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -17047,17 +17460,21 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27122826"/>
+        <c:crossAx val="50261944"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27122826"/>
+        <c:axId val="50261944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17080,12 +17497,20 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:rPr>
                   <a:t>%</a:t>
                 </a:r>
@@ -17100,7 +17525,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -17117,14 +17542,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46800041"/>
+        <c:crossAx val="51266239"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -17150,7 +17579,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -17486,11 +17919,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25051380"/>
-        <c:axId val="19647896"/>
+        <c:axId val="37243259"/>
+        <c:axId val="9097256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25051380"/>
+        <c:axId val="37243259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17522,12 +17955,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19647896"/>
+        <c:crossAx val="9097256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19647896"/>
+        <c:axId val="9097256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17568,7 +18001,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25051380"/>
+        <c:crossAx val="37243259"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17936,11 +18369,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86833976"/>
-        <c:axId val="59708847"/>
+        <c:axId val="1671012"/>
+        <c:axId val="39864226"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86833976"/>
+        <c:axId val="1671012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17972,12 +18405,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59708847"/>
+        <c:crossAx val="39864226"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59708847"/>
+        <c:axId val="39864226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18018,7 +18451,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86833976"/>
+        <c:crossAx val="1671012"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18386,11 +18819,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52396440"/>
-        <c:axId val="40419890"/>
+        <c:axId val="17147422"/>
+        <c:axId val="96989844"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52396440"/>
+        <c:axId val="17147422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18422,12 +18855,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40419890"/>
+        <c:crossAx val="96989844"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40419890"/>
+        <c:axId val="96989844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18468,7 +18901,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52396440"/>
+        <c:crossAx val="17147422"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18836,11 +19269,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="98692033"/>
-        <c:axId val="54928660"/>
+        <c:axId val="84096707"/>
+        <c:axId val="31761433"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98692033"/>
+        <c:axId val="84096707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18872,12 +19305,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54928660"/>
+        <c:crossAx val="31761433"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54928660"/>
+        <c:axId val="31761433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18918,7 +19351,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98692033"/>
+        <c:crossAx val="84096707"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19286,11 +19719,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9985793"/>
-        <c:axId val="41561048"/>
+        <c:axId val="55824093"/>
+        <c:axId val="74506217"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9985793"/>
+        <c:axId val="55824093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19322,12 +19755,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41561048"/>
+        <c:crossAx val="74506217"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41561048"/>
+        <c:axId val="74506217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19368,7 +19801,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9985793"/>
+        <c:crossAx val="55824093"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19736,11 +20169,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7837556"/>
-        <c:axId val="41592067"/>
+        <c:axId val="21191536"/>
+        <c:axId val="86024450"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7837556"/>
+        <c:axId val="21191536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19772,12 +20205,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41592067"/>
+        <c:crossAx val="86024450"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41592067"/>
+        <c:axId val="86024450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19818,7 +20251,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7837556"/>
+        <c:crossAx val="21191536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19881,9 +20314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1056960</xdr:colOff>
+      <xdr:colOff>1056600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19892,7 +20325,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="229680" y="2684520"/>
-        <a:ext cx="3476520" cy="1953360"/>
+        <a:ext cx="3476160" cy="1953000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19911,9 +20344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>630720</xdr:colOff>
+      <xdr:colOff>630360</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19922,7 +20355,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3747240" y="2653920"/>
-        <a:ext cx="3478680" cy="1953720"/>
+        <a:ext cx="3478320" cy="1953360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19941,9 +20374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>513360</xdr:colOff>
+      <xdr:colOff>513000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19952,7 +20385,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7567560" y="2497320"/>
-        <a:ext cx="4417560" cy="1994040"/>
+        <a:ext cx="4417200" cy="1993680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19970,15 +20403,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>724680</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19986,8 +20419,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27000" y="1287000"/>
-        <a:ext cx="5574600" cy="3256560"/>
+        <a:off x="44640" y="1273320"/>
+        <a:ext cx="4679640" cy="2772720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19999,16 +20432,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>803160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>852120</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:colOff>587880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20016,8 +20449,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5736240" y="1244160"/>
-        <a:ext cx="5110920" cy="2942280"/>
+        <a:off x="4867200" y="1291320"/>
+        <a:ext cx="5715720" cy="3043800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20030,15 +20463,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>41040</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1206360</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20046,8 +20479,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11305800" y="1335600"/>
-        <a:ext cx="4412880" cy="2481480"/>
+        <a:off x="10721880" y="1336680"/>
+        <a:ext cx="5119920" cy="2718360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20071,9 +20504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>556920</xdr:colOff>
+      <xdr:colOff>556560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20082,7 +20515,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="18720" y="672840"/>
-        <a:ext cx="5415120" cy="2980080"/>
+        <a:ext cx="5414760" cy="2979720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20101,9 +20534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>306000</xdr:colOff>
+      <xdr:colOff>305640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20112,7 +20545,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5704920" y="681840"/>
-        <a:ext cx="4354560" cy="2727360"/>
+        <a:ext cx="4354200" cy="2727000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20130,10 +20563,10 @@
       <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1042920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20142,7 +20575,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11405160" y="672840"/>
-        <a:ext cx="5485680" cy="2849400"/>
+        <a:ext cx="5485320" cy="2849040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20163,8 +20596,8 @@
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.102855960264901</cdr:x>
-      <cdr:y>0.183124539425203</cdr:y>
+      <cdr:x>0.102763117044396</cdr:x>
+      <cdr:y>0.182974018794914</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
@@ -20178,7 +20611,7 @@
       <cdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="357840" cy="357840"/>
+          <a:ext cx="357480" cy="357480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20203,9 +20636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>233280</xdr:colOff>
+      <xdr:colOff>232920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20214,7 +20647,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="18000" y="2357280"/>
-        <a:ext cx="2962800" cy="1813320"/>
+        <a:ext cx="2962440" cy="1812960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20233,9 +20666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>581040</xdr:colOff>
+      <xdr:colOff>580680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20244,7 +20677,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3143520" y="2375280"/>
-        <a:ext cx="3436200" cy="1858680"/>
+        <a:ext cx="3435840" cy="1858320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20263,9 +20696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428400</xdr:colOff>
+      <xdr:colOff>428040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20274,7 +20707,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5393880" y="90360"/>
-        <a:ext cx="3471840" cy="2111400"/>
+        <a:ext cx="3471480" cy="2111040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20298,9 +20731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>631080</xdr:colOff>
+      <xdr:colOff>630720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20309,7 +20742,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="26640" y="2998440"/>
-        <a:ext cx="2972880" cy="1750320"/>
+        <a:ext cx="2972520" cy="1749960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20328,9 +20761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>68400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20339,7 +20772,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3054960" y="3007440"/>
-        <a:ext cx="3446280" cy="1912680"/>
+        <a:ext cx="3445920" cy="1912320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20358,9 +20791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>729720</xdr:colOff>
+      <xdr:colOff>729360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20369,7 +20802,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5064840" y="442440"/>
-        <a:ext cx="3723120" cy="2192760"/>
+        <a:ext cx="3722760" cy="2192400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20393,9 +20826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>476640</xdr:colOff>
+      <xdr:colOff>476280</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20404,7 +20837,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="111600" y="2289240"/>
-        <a:ext cx="3014280" cy="1682280"/>
+        <a:ext cx="3013920" cy="1681920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20423,9 +20856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>182160</xdr:colOff>
+      <xdr:colOff>181800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20434,7 +20867,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3219480" y="2482560"/>
-        <a:ext cx="2971800" cy="1668960"/>
+        <a:ext cx="2971440" cy="1668600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20453,9 +20886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>756360</xdr:colOff>
+      <xdr:colOff>756000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20464,7 +20897,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5284800" y="318600"/>
-        <a:ext cx="3106080" cy="1870920"/>
+        <a:ext cx="3105720" cy="1870560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20488,9 +20921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20499,7 +20932,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="320040" y="4177440"/>
-        <a:ext cx="8772840" cy="4941360"/>
+        <a:ext cx="8772480" cy="4941000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20518,9 +20951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20529,7 +20962,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9462600" y="4140360"/>
-        <a:ext cx="8436600" cy="4752720"/>
+        <a:ext cx="8436240" cy="4752360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20548,9 +20981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>351720</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20559,7 +20992,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="312480" y="9388080"/>
-        <a:ext cx="12245040" cy="6897240"/>
+        <a:ext cx="12244680" cy="6896880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20583,9 +21016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20594,7 +21027,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="67680" y="5158800"/>
-        <a:ext cx="7835760" cy="4373280"/>
+        <a:ext cx="7835400" cy="4372920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20613,9 +21046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>405360</xdr:colOff>
+      <xdr:colOff>405000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20624,7 +21057,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7862400" y="2186280"/>
-        <a:ext cx="7534080" cy="5398200"/>
+        <a:ext cx="7533720" cy="5397840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20643,9 +21076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>193680</xdr:colOff>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20654,7 +21087,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="53640" y="1957320"/>
-        <a:ext cx="5377680" cy="3239640"/>
+        <a:ext cx="5377320" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20672,15 +21105,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>558000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607320</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20688,8 +21121,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="32760" y="1267920"/>
-        <a:ext cx="5402160" cy="3104640"/>
+        <a:off x="0" y="1237320"/>
+        <a:ext cx="4671360" cy="2790720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20702,15 +21135,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>738720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:colOff>642960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>590760</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20718,8 +21151,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5615640" y="1243800"/>
-        <a:ext cx="5541480" cy="3112560"/>
+        <a:off x="5519880" y="1309680"/>
+        <a:ext cx="5305320" cy="3034440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20731,16 +21164,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>336240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:colOff>544680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20748,8 +21181,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11412000" y="1203120"/>
-        <a:ext cx="4367520" cy="2413800"/>
+        <a:off x="10995120" y="1300320"/>
+        <a:ext cx="4992840" cy="2709360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20767,15 +21200,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
+      <xdr:colOff>53640</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>740520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>734760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20783,8 +21216,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="49320" y="1137960"/>
-        <a:ext cx="5568120" cy="3242880"/>
+        <a:off x="53640" y="1137960"/>
+        <a:ext cx="4745160" cy="2971080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20797,15 +21230,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>781920</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>816480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20813,8 +21246,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5658840" y="1162440"/>
-        <a:ext cx="5764320" cy="3242880"/>
+        <a:off x="4915080" y="1246320"/>
+        <a:ext cx="5067000" cy="2926080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20826,16 +21259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>906120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20843,8 +21276,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11702880" y="1211040"/>
-        <a:ext cx="5445000" cy="3031560"/>
+        <a:off x="10071720" y="1237320"/>
+        <a:ext cx="4584240" cy="2664000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21742,13 +22175,17 @@
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U20" activeCellId="0" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21822,19 +22259,19 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="n">
+        <f aca="false">AVERAGE('N=2.5k -O2 prof static'!H2:H6)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <f aca="false">AVERAGE('N=2.5k -O2 prof static'!I2:I6)</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="n">
+        <v>1.76437551676352</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <f aca="false">AVERAGE('N=2.5k -O2 prof static'!J2:J6)</f>
-        <v>1.76437551676352</v>
-      </c>
-      <c r="K2" s="1" t="n">
+        <v>3.14435393673651</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <f aca="false">AVERAGE('N=2.5k -O2 prof static'!K2:K6)</f>
-        <v>3.14435393673651</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <f aca="false">AVERAGE('N=2.5k -O2 prof static'!L2:L6)</f>
         <v>4.27333957855259</v>
       </c>
       <c r="O2" s="15" t="s">
@@ -21940,19 +22377,19 @@
         <v>45</v>
       </c>
       <c r="I4" s="1" t="n">
+        <f aca="false">AVERAGE('N=2.5k -O2 prof guided'!H2:H6)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <f aca="false">AVERAGE('N=2.5k -O2 prof guided'!I2:I6)</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="n">
+        <v>1.79846565078398</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <f aca="false">AVERAGE('N=2.5k -O2 prof guided'!J2:J6)</f>
-        <v>1.79846565078398</v>
-      </c>
-      <c r="K4" s="1" t="n">
+        <v>2.63502052438874</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <f aca="false">AVERAGE('N=2.5k -O2 prof guided'!K2:K6)</f>
-        <v>2.63502052438874</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">AVERAGE('N=2.5k -O2 prof guided'!L2:L6)</f>
         <v>3.58484351566992</v>
       </c>
       <c r="O4" s="13" t="s">
@@ -24354,8 +24791,8 @@
   </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V27" activeCellId="0" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24824,8 +25261,8 @@
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24851,39 +25288,41 @@
       <c r="E1" s="16" t="n">
         <v>8</v>
       </c>
+      <c r="G1" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="H1" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1" s="0"/>
+      <c r="M1" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="I1" s="16" t="n">
+      <c r="N1" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="J1" s="16" t="n">
+      <c r="O1" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="K1" s="16" t="n">
+      <c r="P1" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="L1" s="16" t="n">
+      <c r="Q1" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="O1" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R1" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S1" s="16" t="n">
-        <v>8</v>
-      </c>
+      <c r="S1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -24898,47 +25337,49 @@
       <c r="E2" s="1" t="n">
         <v>5.513413</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <f aca="false">$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <f aca="false">$B$2/C2</f>
         <v>1.75244957904714</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <f aca="false">$B$2/D2</f>
         <v>3.04056528178971</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <f aca="false">$B$2/E2</f>
         <v>4.0688484610168</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="L2" s="0"/>
+      <c r="M2" s="18" t="s">
         <v>35</v>
       </c>
+      <c r="N2" s="1" t="n">
+        <f aca="false">H2/H1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <f aca="false">I2/I1 * 100</f>
+        <v>87.6224789523569</v>
+      </c>
       <c r="P2" s="1" t="n">
-        <f aca="false">I2/I1 * 100</f>
-        <v>100</v>
+        <f aca="false">J2/J1 * 100</f>
+        <v>76.0141320447428</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <f aca="false">J2/J1 * 100</f>
-        <v>87.6224789523569</v>
-      </c>
-      <c r="R2" s="1" t="n">
         <f aca="false">K2/K1 * 100</f>
-        <v>76.0141320447428</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <f aca="false">L2/L1 * 100</f>
         <v>50.86060576271</v>
       </c>
+      <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -24953,47 +25394,49 @@
       <c r="E3" s="1" t="n">
         <v>5.33022</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false">$B$3/B3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="I3" s="1" t="n">
         <f aca="false">$B$3/C3</f>
         <v>1.75757444523428</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <f aca="false">$B$3/D3</f>
         <v>3.14890225458837</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">$B$3/E3</f>
         <v>4.2104928126794</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="L3" s="0"/>
+      <c r="M3" s="18" t="s">
         <v>36</v>
       </c>
+      <c r="N3" s="1" t="n">
+        <f aca="false">H3/H$1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <f aca="false">I3/I$1 * 100</f>
+        <v>87.8787222617139</v>
+      </c>
       <c r="P3" s="1" t="n">
-        <f aca="false">I3/I$1 * 100</f>
-        <v>100</v>
+        <f aca="false">J3/J$1 * 100</f>
+        <v>78.7225563647093</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <f aca="false">J3/J$1 * 100</f>
-        <v>87.8787222617139</v>
-      </c>
-      <c r="R3" s="1" t="n">
         <f aca="false">K3/K$1 * 100</f>
-        <v>78.7225563647093</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <f aca="false">L3/L$1 * 100</f>
         <v>52.6311601584925</v>
       </c>
+      <c r="S3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -25008,47 +25451,49 @@
       <c r="E4" s="1" t="n">
         <v>5.200483</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false">$B$4/B4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">$B$4/C4</f>
         <v>1.77817170986165</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false">$B$4/D4</f>
         <v>3.22342337541747</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">$B$4/E4</f>
         <v>4.37364414036158</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="L4" s="0"/>
+      <c r="M4" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="N4" s="1" t="n">
+        <f aca="false">H4/H$1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <f aca="false">I4/I$1 * 100</f>
+        <v>88.9085854930823</v>
+      </c>
       <c r="P4" s="1" t="n">
-        <f aca="false">I4/I$1 * 100</f>
-        <v>100</v>
+        <f aca="false">J4/J$1 * 100</f>
+        <v>80.5855843854368</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <f aca="false">J4/J$1 * 100</f>
-        <v>88.9085854930823</v>
-      </c>
-      <c r="R4" s="1" t="n">
         <f aca="false">K4/K$1 * 100</f>
-        <v>80.5855843854368</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <f aca="false">L4/L$1 * 100</f>
         <v>54.6705517545197</v>
       </c>
+      <c r="S4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -25063,47 +25508,49 @@
       <c r="E5" s="1" t="n">
         <v>5.164773</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false">$B$5/B5</f>
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">$B$5/C5</f>
         <v>1.75512428014831</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">$B$5/D5</f>
         <v>3.14896670183487</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">$B$5/E5</f>
         <v>4.34400117875461</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="L5" s="0"/>
+      <c r="M5" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="N5" s="1" t="n">
+        <f aca="false">H5/H$1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <f aca="false">I5/I$1 * 100</f>
+        <v>87.7562140074153</v>
+      </c>
       <c r="P5" s="1" t="n">
-        <f aca="false">I5/I$1 * 100</f>
-        <v>100</v>
+        <f aca="false">J5/J$1 * 100</f>
+        <v>78.7241675458718</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <f aca="false">J5/J$1 * 100</f>
-        <v>87.7562140074153</v>
-      </c>
-      <c r="R5" s="1" t="n">
         <f aca="false">K5/K$1 * 100</f>
-        <v>78.7241675458718</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <f aca="false">L5/L$1 * 100</f>
         <v>54.3000147344327</v>
       </c>
+      <c r="S5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -25118,44 +25565,46 @@
       <c r="E6" s="1" t="n">
         <v>5.154173</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false">$B$6/B6</f>
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">$B$6/C6</f>
         <v>1.77855756952621</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">$B$6/D6</f>
         <v>3.15991207005213</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">$B$6/E6</f>
         <v>4.36971129995055</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="L6" s="0"/>
+      <c r="M6" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">H6/H$1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <f aca="false">I6/I$1 * 100</f>
+        <v>88.9278784763105</v>
+      </c>
       <c r="P6" s="1" t="n">
-        <f aca="false">I6/I$1 * 100</f>
-        <v>100</v>
+        <f aca="false">J6/J$1 * 100</f>
+        <v>78.9978017513033</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <f aca="false">J6/J$1 * 100</f>
-        <v>88.9278784763105</v>
-      </c>
-      <c r="R6" s="1" t="n">
         <f aca="false">K6/K$1 * 100</f>
-        <v>78.9978017513033</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <f aca="false">L6/L$1 * 100</f>
         <v>54.6213912493818</v>
       </c>
+      <c r="S6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
@@ -25177,44 +25626,46 @@
         <f aca="false">AVERAGE(E2:E6)</f>
         <v>5.2726124</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>34</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">AVERAGE(H2:H6)</f>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
         <f aca="false">AVERAGE(I2:I6)</f>
-        <v>1</v>
+        <v>1.76437551676352</v>
       </c>
       <c r="J7" s="1" t="n">
         <f aca="false">AVERAGE(J2:J6)</f>
-        <v>1.76437551676352</v>
+        <v>3.14435393673651</v>
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">AVERAGE(K2:K6)</f>
-        <v>3.14435393673651</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <f aca="false">AVERAGE(L2:L6)</f>
         <v>4.27333957855259</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="L7" s="0"/>
+      <c r="M7" s="17" t="s">
         <v>34</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">AVERAGE(N2:N6)</f>
+        <v>100</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <f aca="false">AVERAGE(O2:O6)</f>
+        <v>88.2187758381758</v>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">AVERAGE(P2:P6)</f>
-        <v>100</v>
+        <v>78.6088484184128</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">AVERAGE(Q2:Q6)</f>
-        <v>88.2187758381758</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <f aca="false">AVERAGE(R2:R6)</f>
-        <v>78.6088484184128</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <f aca="false">AVERAGE(S2:S6)</f>
         <v>53.4167447319073</v>
       </c>
+      <c r="S7" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -25235,15 +25686,15 @@
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S29" activeCellId="0" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="16.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.85"/>
@@ -25265,36 +25716,39 @@
       <c r="E1" s="16" t="n">
         <v>8</v>
       </c>
+      <c r="G1" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="H1" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1" s="0"/>
+      <c r="M1" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="I1" s="16" t="n">
+      <c r="N1" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="J1" s="16" t="n">
+      <c r="O1" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="K1" s="16" t="n">
+      <c r="P1" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="L1" s="16" t="n">
+      <c r="Q1" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="O1" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R1" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S1" s="16" t="n">
-        <v>8</v>
-      </c>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
@@ -25312,44 +25766,47 @@
       <c r="E2" s="1" t="n">
         <v>6.311978</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <f aca="false">$B$2/B2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <f aca="false">$B$2/C2</f>
         <v>1.82863014916621</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <f aca="false">$B$2/D2</f>
         <v>2.62636370821059</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <f aca="false">$B$2/E2</f>
         <v>3.65909038339487</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="L2" s="0"/>
+      <c r="M2" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="N2" s="1" t="n">
+        <f aca="false">H2/H1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <f aca="false">I2/I1 * 100</f>
+        <v>91.4315074583107</v>
+      </c>
       <c r="P2" s="1" t="n">
-        <f aca="false">I2/I1 * 100</f>
-        <v>100</v>
+        <f aca="false">J2/J1 * 100</f>
+        <v>65.6590927052648</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <f aca="false">J2/J1 * 100</f>
-        <v>91.4315074583107</v>
-      </c>
-      <c r="R2" s="1" t="n">
         <f aca="false">K2/K1 * 100</f>
-        <v>65.6590927052648</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <f aca="false">L2/L1 * 100</f>
         <v>45.7386297924359</v>
       </c>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
@@ -25367,44 +25824,47 @@
       <c r="E3" s="1" t="n">
         <v>6.447757</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false">$B$3/B3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="I3" s="1" t="n">
         <f aca="false">$B$3/C3</f>
         <v>1.80521879200118</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <f aca="false">$B$3/D3</f>
         <v>2.6119936075314</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">$B$3/E3</f>
         <v>3.50647876463086</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="L3" s="0"/>
+      <c r="M3" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="N3" s="1" t="n">
+        <f aca="false">H3/H1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <f aca="false">I3/I1 * 100</f>
+        <v>90.2609396000591</v>
+      </c>
       <c r="P3" s="1" t="n">
-        <f aca="false">I3/I1 * 100</f>
-        <v>100</v>
+        <f aca="false">J3/J1 * 100</f>
+        <v>65.2998401882851</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <f aca="false">J3/J1 * 100</f>
-        <v>90.2609396000591</v>
-      </c>
-      <c r="R3" s="1" t="n">
         <f aca="false">K3/K1 * 100</f>
-        <v>65.2998401882851</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <f aca="false">L3/L1 * 100</f>
         <v>43.8309845578858</v>
       </c>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
@@ -25422,44 +25882,47 @@
       <c r="E4" s="1" t="n">
         <v>6.171767</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false">$B$4/B4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">$B$4/C4</f>
         <v>1.77392632946749</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false">$B$4/D4</f>
         <v>2.63723740659665</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">$B$4/E4</f>
         <v>3.64444331744863</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="L4" s="0"/>
+      <c r="M4" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="N4" s="1" t="n">
+        <f aca="false">H4/H1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <f aca="false">I4/I1 * 100</f>
+        <v>88.6963164733744</v>
+      </c>
       <c r="P4" s="1" t="n">
-        <f aca="false">I4/I1 * 100</f>
-        <v>100</v>
+        <f aca="false">J4/J1 * 100</f>
+        <v>65.9309351649163</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <f aca="false">J4/J1 * 100</f>
-        <v>88.6963164733744</v>
-      </c>
-      <c r="R4" s="1" t="n">
         <f aca="false">K4/K1 * 100</f>
-        <v>65.9309351649163</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <f aca="false">L4/L1 * 100</f>
         <v>45.5555414681079</v>
       </c>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
@@ -25477,44 +25940,47 @@
       <c r="E5" s="1" t="n">
         <v>6.372996</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false">$B$5/B5</f>
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">$B$5/C5</f>
         <v>1.79362230741667</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">$B$5/D5</f>
         <v>2.64797341312392</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">$B$5/E5</f>
         <v>3.55017545907765</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="L5" s="0"/>
+      <c r="M5" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="N5" s="1" t="n">
+        <f aca="false">H5/H1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <f aca="false">I5/I1 * 100</f>
+        <v>89.6811153708337</v>
+      </c>
       <c r="P5" s="1" t="n">
-        <f aca="false">I5/I1 * 100</f>
-        <v>100</v>
+        <f aca="false">J5/J1 * 100</f>
+        <v>66.1993353280981</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <f aca="false">J5/J1 * 100</f>
-        <v>89.6811153708337</v>
-      </c>
-      <c r="R5" s="1" t="n">
         <f aca="false">K5/K1 * 100</f>
-        <v>66.1993353280981</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <f aca="false">L5/L1 * 100</f>
         <v>44.3771932384706</v>
       </c>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
@@ -25532,44 +25998,47 @@
       <c r="E6" s="1" t="n">
         <v>6.35062</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false">$B$6/B6</f>
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">$B$6/C6</f>
         <v>1.79093067586833</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">$B$6/D6</f>
         <v>2.65153448648114</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">$B$6/E6</f>
         <v>3.56402965379758</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="L6" s="0"/>
+      <c r="M6" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">H6/H1 * 100</f>
+        <v>100</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <f aca="false">I6/I1 * 100</f>
+        <v>89.5465337934163</v>
+      </c>
       <c r="P6" s="1" t="n">
-        <f aca="false">I6/I1 * 100</f>
-        <v>100</v>
+        <f aca="false">J6/J1 * 100</f>
+        <v>66.2883621620286</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <f aca="false">J6/J1 * 100</f>
-        <v>89.5465337934163</v>
-      </c>
-      <c r="R6" s="1" t="n">
         <f aca="false">K6/K1 * 100</f>
-        <v>66.2883621620286</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <f aca="false">L6/L1 * 100</f>
         <v>44.5503706724698</v>
       </c>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
@@ -25591,44 +26060,47 @@
         <f aca="false">AVERAGE(E2:E6)</f>
         <v>6.3310236</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>34</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">AVERAGE(H2:H6)</f>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
         <f aca="false">AVERAGE(I2:I6)</f>
-        <v>1</v>
+        <v>1.79846565078398</v>
       </c>
       <c r="J7" s="1" t="n">
         <f aca="false">AVERAGE(J2:J6)</f>
-        <v>1.79846565078398</v>
+        <v>2.63502052438874</v>
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">AVERAGE(K2:K6)</f>
-        <v>2.63502052438874</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <f aca="false">AVERAGE(L2:L6)</f>
         <v>3.58484351566992</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="L7" s="0"/>
+      <c r="M7" s="17" t="s">
         <v>34</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">AVERAGE(N2:N6)</f>
+        <v>100</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <f aca="false">AVERAGE(O2:O6)</f>
+        <v>89.9232825391988</v>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">AVERAGE(P2:P6)</f>
-        <v>100</v>
+        <v>65.8755131097186</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">AVERAGE(Q2:Q6)</f>
-        <v>89.9232825391988</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <f aca="false">AVERAGE(R2:R6)</f>
-        <v>65.8755131097186</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <f aca="false">AVERAGE(S2:S6)</f>
         <v>44.810543945874</v>
       </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
